--- a/white_2020_3_27.xlsx
+++ b/white_2020_3_27.xlsx
@@ -1538,12 +1538,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE541"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
@@ -1652,7 +1655,7 @@
         <v>0.75</v>
       </c>
       <c r="D2" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1747,7 +1750,7 @@
         <v>0.75069444444444444</v>
       </c>
       <c r="D3" s="2">
-        <v>0.41736111111111113</v>
+        <v>0.45902777777777781</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1842,7 +1845,7 @@
         <v>0.75138888888888899</v>
       </c>
       <c r="D4" s="2">
-        <v>0.41805555555555557</v>
+        <v>0.4597222222222222</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1937,7 +1940,7 @@
         <v>0.75208333333333333</v>
       </c>
       <c r="D5" s="2">
-        <v>0.41875000000000001</v>
+        <v>0.4604166666666667</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2032,7 +2035,7 @@
         <v>0.75277777777777777</v>
       </c>
       <c r="D6" s="2">
-        <v>0.41944444444444445</v>
+        <v>0.46111111111111108</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2127,7 +2130,7 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="D7" s="2">
-        <v>0.4201388888888889</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -2222,7 +2225,7 @@
         <v>0.75416666666666676</v>
       </c>
       <c r="D8" s="2">
-        <v>0.42083333333333334</v>
+        <v>0.46249999999999997</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -2317,7 +2320,7 @@
         <v>0.75486111111111109</v>
       </c>
       <c r="D9" s="2">
-        <v>0.42152777777777778</v>
+        <v>0.46319444444444446</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -2412,7 +2415,7 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="D10" s="2">
-        <v>0.42222222222222222</v>
+        <v>0.46388888888888885</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -2507,7 +2510,7 @@
         <v>0.75624999999999998</v>
       </c>
       <c r="D11" s="2">
-        <v>0.42291666666666666</v>
+        <v>0.46458333333333335</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -2602,7 +2605,7 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="D12" s="2">
-        <v>0.4236111111111111</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -2697,7 +2700,7 @@
         <v>0.75763888888888886</v>
       </c>
       <c r="D13" s="2">
-        <v>0.42430555555555555</v>
+        <v>0.46597222222222223</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2792,7 +2795,7 @@
         <v>0.7583333333333333</v>
       </c>
       <c r="D14" s="2">
-        <v>0.42499999999999999</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -2887,7 +2890,7 @@
         <v>0.75902777777777775</v>
       </c>
       <c r="D15" s="2">
-        <v>0.42569444444444443</v>
+        <v>0.46736111111111112</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -2982,7 +2985,7 @@
         <v>0.7597222222222223</v>
       </c>
       <c r="D16" s="2">
-        <v>0.42638888888888887</v>
+        <v>0.4680555555555555</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -3077,7 +3080,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D17" s="2">
-        <v>0.42708333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3172,7 +3175,7 @@
         <v>0.76111111111111107</v>
       </c>
       <c r="D18" s="2">
-        <v>0.42777777777777781</v>
+        <v>0.4694444444444445</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3267,7 +3270,7 @@
         <v>0.76180555555555562</v>
       </c>
       <c r="D19" s="2">
-        <v>0.4284722222222222</v>
+        <v>0.47013888888888888</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -3362,7 +3365,7 @@
         <v>0.76250000000000007</v>
       </c>
       <c r="D20" s="2">
-        <v>0.4291666666666667</v>
+        <v>0.47083333333333338</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -3457,7 +3460,7 @@
         <v>0.7631944444444444</v>
       </c>
       <c r="D21" s="2">
-        <v>0.42986111111111108</v>
+        <v>0.47152777777777777</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3552,7 +3555,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="D22" s="2">
-        <v>0.43055555555555558</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -3647,7 +3650,7 @@
         <v>0.76458333333333339</v>
       </c>
       <c r="D23" s="2">
-        <v>0.43124999999999997</v>
+        <v>0.47291666666666665</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -3742,7 +3745,7 @@
         <v>0.76527777777777783</v>
       </c>
       <c r="D24" s="2">
-        <v>0.43194444444444446</v>
+        <v>0.47361111111111115</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -3837,7 +3840,7 @@
         <v>0.76597222222222217</v>
       </c>
       <c r="D25" s="2">
-        <v>0.43263888888888885</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="E25">
         <v>19</v>
@@ -3932,7 +3935,7 @@
         <v>0.76666666666666661</v>
       </c>
       <c r="D26" s="2">
-        <v>0.43333333333333335</v>
+        <v>0.47500000000000003</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -4027,7 +4030,7 @@
         <v>0.76736111111111116</v>
       </c>
       <c r="D27" s="2">
-        <v>0.43402777777777773</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4122,7 +4125,7 @@
         <v>0.7680555555555556</v>
       </c>
       <c r="D28" s="2">
-        <v>0.43472222222222223</v>
+        <v>0.47638888888888892</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4217,7 +4220,7 @@
         <v>0.76874999999999993</v>
       </c>
       <c r="D29" s="2">
-        <v>0.43541666666666662</v>
+        <v>0.4770833333333333</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -4312,7 +4315,7 @@
         <v>0.76944444444444438</v>
       </c>
       <c r="D30" s="2">
-        <v>0.43611111111111112</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -4407,7 +4410,7 @@
         <v>0.77013888888888893</v>
       </c>
       <c r="D31" s="2">
-        <v>0.4368055555555555</v>
+        <v>0.47847222222222219</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4502,7 +4505,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D32" s="2">
-        <v>0.4375</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -4597,7 +4600,7 @@
         <v>0.7715277777777777</v>
       </c>
       <c r="D33" s="2">
-        <v>0.4381944444444445</v>
+        <v>0.47986111111111113</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -4692,7 +4695,7 @@
         <v>0.77222222222222225</v>
       </c>
       <c r="D34" s="2">
-        <v>0.43888888888888888</v>
+        <v>0.48055555555555557</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4787,7 +4790,7 @@
         <v>0.7729166666666667</v>
       </c>
       <c r="D35" s="2">
-        <v>0.43958333333333338</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -4882,7 +4885,7 @@
         <v>0.77361111111111114</v>
       </c>
       <c r="D36" s="2">
-        <v>0.44027777777777777</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="E36">
         <v>10</v>
@@ -4977,7 +4980,7 @@
         <v>0.77430555555555547</v>
       </c>
       <c r="D37" s="2">
-        <v>0.44097222222222227</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="E37">
         <v>7</v>
@@ -5072,7 +5075,7 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="D38" s="2">
-        <v>0.44166666666666665</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="E38">
         <v>7</v>
@@ -5167,7 +5170,7 @@
         <v>0.77569444444444446</v>
       </c>
       <c r="D39" s="2">
-        <v>0.44236111111111115</v>
+        <v>0.48402777777777778</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -5262,7 +5265,7 @@
         <v>0.77638888888888891</v>
       </c>
       <c r="D40" s="2">
-        <v>0.44305555555555554</v>
+        <v>0.48472222222222222</v>
       </c>
       <c r="E40">
         <v>8</v>
@@ -5357,7 +5360,7 @@
         <v>0.77708333333333324</v>
       </c>
       <c r="D41" s="2">
-        <v>0.44375000000000003</v>
+        <v>0.48541666666666666</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5452,7 +5455,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D42" s="2">
-        <v>0.44444444444444442</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5547,7 +5550,7 @@
         <v>0.77847222222222223</v>
       </c>
       <c r="D43" s="2">
-        <v>0.44513888888888892</v>
+        <v>0.48680555555555555</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -5642,7 +5645,7 @@
         <v>0.77916666666666667</v>
       </c>
       <c r="D44" s="2">
-        <v>0.4458333333333333</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -5737,7 +5740,7 @@
         <v>0.77986111111111101</v>
       </c>
       <c r="D45" s="2">
-        <v>0.4465277777777778</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -5832,7 +5835,7 @@
         <v>0.78055555555555556</v>
       </c>
       <c r="D46" s="2">
-        <v>0.44722222222222219</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -5927,7 +5930,7 @@
         <v>0.78125</v>
       </c>
       <c r="D47" s="2">
-        <v>0.44791666666666669</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -6022,7 +6025,7 @@
         <v>0.78194444444444444</v>
       </c>
       <c r="D48" s="2">
-        <v>0.44861111111111113</v>
+        <v>0.49027777777777781</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -6117,7 +6120,7 @@
         <v>0.78263888888888899</v>
       </c>
       <c r="D49" s="2">
-        <v>0.44930555555555557</v>
+        <v>0.4909722222222222</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -6212,7 +6215,7 @@
         <v>0.78333333333333333</v>
       </c>
       <c r="D50" s="2">
-        <v>0.45</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -6307,7 +6310,7 @@
         <v>0.78402777777777777</v>
       </c>
       <c r="D51" s="2">
-        <v>0.45069444444444445</v>
+        <v>0.49236111111111108</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -6402,7 +6405,7 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="D52" s="2">
-        <v>0.4513888888888889</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -6497,7 +6500,7 @@
         <v>0.78541666666666676</v>
       </c>
       <c r="D53" s="2">
-        <v>0.45208333333333334</v>
+        <v>0.49374999999999997</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -6592,7 +6595,7 @@
         <v>0.78611111111111109</v>
       </c>
       <c r="D54" s="2">
-        <v>0.45277777777777778</v>
+        <v>0.49444444444444446</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -6687,7 +6690,7 @@
         <v>0.78680555555555554</v>
       </c>
       <c r="D55" s="2">
-        <v>0.45347222222222222</v>
+        <v>0.49513888888888885</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -6782,7 +6785,7 @@
         <v>0.78749999999999998</v>
       </c>
       <c r="D56" s="2">
-        <v>0.45416666666666666</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -6877,7 +6880,7 @@
         <v>0.78819444444444453</v>
       </c>
       <c r="D57" s="2">
-        <v>0.4548611111111111</v>
+        <v>0.49652777777777773</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -6972,7 +6975,7 @@
         <v>0.78888888888888886</v>
       </c>
       <c r="D58" s="2">
-        <v>0.45555555555555555</v>
+        <v>0.49722222222222223</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -7067,7 +7070,7 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="D59" s="2">
-        <v>0.45624999999999999</v>
+        <v>0.49791666666666662</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -7162,7 +7165,7 @@
         <v>0.79027777777777775</v>
       </c>
       <c r="D60" s="2">
-        <v>0.45694444444444443</v>
+        <v>0.49861111111111112</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -7257,7 +7260,7 @@
         <v>0.7909722222222223</v>
       </c>
       <c r="D61" s="2">
-        <v>0.45763888888888887</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -7352,7 +7355,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D62" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E62">
         <v>4</v>
@@ -7447,7 +7450,7 @@
         <v>0.79236111111111107</v>
       </c>
       <c r="D63" s="2">
-        <v>0.45902777777777781</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -7542,7 +7545,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="D64" s="2">
-        <v>0.4597222222222222</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -7637,7 +7640,7 @@
         <v>0.79375000000000007</v>
       </c>
       <c r="D65" s="2">
-        <v>0.4604166666666667</v>
+        <v>0.50208333333333333</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -7732,7 +7735,7 @@
         <v>0.7944444444444444</v>
       </c>
       <c r="D66" s="2">
-        <v>0.46111111111111108</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -7827,7 +7830,7 @@
         <v>0.79513888888888884</v>
       </c>
       <c r="D67" s="2">
-        <v>0.46180555555555558</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -7922,7 +7925,7 @@
         <v>0.79583333333333339</v>
       </c>
       <c r="D68" s="2">
-        <v>0.46249999999999997</v>
+        <v>0.50416666666666665</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -8017,7 +8020,7 @@
         <v>0.79652777777777783</v>
       </c>
       <c r="D69" s="2">
-        <v>0.46319444444444446</v>
+        <v>0.50486111111111109</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -8112,7 +8115,7 @@
         <v>0.79722222222222217</v>
       </c>
       <c r="D70" s="2">
-        <v>0.46388888888888885</v>
+        <v>0.50555555555555554</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -8207,7 +8210,7 @@
         <v>0.79791666666666661</v>
       </c>
       <c r="D71" s="2">
-        <v>0.46458333333333335</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -8302,7 +8305,7 @@
         <v>0.79861111111111116</v>
       </c>
       <c r="D72" s="2">
-        <v>0.46527777777777773</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -8397,7 +8400,7 @@
         <v>0.7993055555555556</v>
       </c>
       <c r="D73" s="2">
-        <v>0.46597222222222223</v>
+        <v>0.50763888888888886</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -8492,7 +8495,7 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="D74" s="2">
-        <v>0.46666666666666662</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="E74">
         <v>3</v>
@@ -8587,7 +8590,7 @@
         <v>0.80069444444444438</v>
       </c>
       <c r="D75" s="2">
-        <v>0.46736111111111112</v>
+        <v>0.50902777777777775</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -8682,7 +8685,7 @@
         <v>0.80138888888888893</v>
       </c>
       <c r="D76" s="2">
-        <v>0.4680555555555555</v>
+        <v>0.50972222222222219</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -8777,7 +8780,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D77" s="2">
-        <v>0.46875</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -8872,7 +8875,7 @@
         <v>0.8027777777777777</v>
       </c>
       <c r="D78" s="2">
-        <v>0.4694444444444445</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -8967,7 +8970,7 @@
         <v>0.80347222222222225</v>
       </c>
       <c r="D79" s="2">
-        <v>0.47013888888888888</v>
+        <v>0.51180555555555551</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -9062,7 +9065,7 @@
         <v>0.8041666666666667</v>
       </c>
       <c r="D80" s="2">
-        <v>0.47083333333333338</v>
+        <v>0.51250000000000007</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -9157,7 +9160,7 @@
         <v>0.80486111111111114</v>
       </c>
       <c r="D81" s="2">
-        <v>0.47152777777777777</v>
+        <v>0.5131944444444444</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -9252,7 +9255,7 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="D82" s="2">
-        <v>0.47222222222222227</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -9347,7 +9350,7 @@
         <v>0.80625000000000002</v>
       </c>
       <c r="D83" s="2">
-        <v>0.47291666666666665</v>
+        <v>0.51458333333333328</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -9442,7 +9445,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="D84" s="2">
-        <v>0.47361111111111115</v>
+        <v>0.51527777777777783</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -9537,7 +9540,7 @@
         <v>0.80763888888888891</v>
       </c>
       <c r="D85" s="2">
-        <v>0.47430555555555554</v>
+        <v>0.51597222222222217</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -9632,7 +9635,7 @@
         <v>0.80833333333333324</v>
       </c>
       <c r="D86" s="2">
-        <v>0.47500000000000003</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -9727,7 +9730,7 @@
         <v>0.80902777777777779</v>
       </c>
       <c r="D87" s="2">
-        <v>0.47569444444444442</v>
+        <v>0.51736111111111105</v>
       </c>
       <c r="E87">
         <v>4</v>
@@ -9822,7 +9825,7 @@
         <v>0.80972222222222223</v>
       </c>
       <c r="D88" s="2">
-        <v>0.47638888888888892</v>
+        <v>0.5180555555555556</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -9917,7 +9920,7 @@
         <v>0.81041666666666667</v>
       </c>
       <c r="D89" s="2">
-        <v>0.4770833333333333</v>
+        <v>0.51874999999999993</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -10012,7 +10015,7 @@
         <v>0.81111111111111101</v>
       </c>
       <c r="D90" s="2">
-        <v>0.4777777777777778</v>
+        <v>0.51944444444444449</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -10107,7 +10110,7 @@
         <v>0.81180555555555556</v>
       </c>
       <c r="D91" s="2">
-        <v>0.47847222222222219</v>
+        <v>0.52013888888888882</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -10202,7 +10205,7 @@
         <v>0.8125</v>
       </c>
       <c r="D92" s="2">
-        <v>0.47916666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -10297,7 +10300,7 @@
         <v>0.81319444444444444</v>
       </c>
       <c r="D93" s="2">
-        <v>0.47986111111111113</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -10392,7 +10395,7 @@
         <v>0.81388888888888899</v>
       </c>
       <c r="D94" s="2">
-        <v>0.48055555555555557</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -10487,7 +10490,7 @@
         <v>0.81458333333333333</v>
       </c>
       <c r="D95" s="2">
-        <v>0.48125000000000001</v>
+        <v>0.5229166666666667</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -10582,7 +10585,7 @@
         <v>0.81527777777777777</v>
       </c>
       <c r="D96" s="2">
-        <v>0.48194444444444445</v>
+        <v>0.52361111111111114</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -10677,7 +10680,7 @@
         <v>0.81597222222222221</v>
       </c>
       <c r="D97" s="2">
-        <v>0.4826388888888889</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -10772,7 +10775,7 @@
         <v>0.81666666666666676</v>
       </c>
       <c r="D98" s="2">
-        <v>0.48333333333333334</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -10867,7 +10870,7 @@
         <v>0.81736111111111109</v>
       </c>
       <c r="D99" s="2">
-        <v>0.48402777777777778</v>
+        <v>0.52569444444444446</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -10962,7 +10965,7 @@
         <v>0.81805555555555554</v>
       </c>
       <c r="D100" s="2">
-        <v>0.48472222222222222</v>
+        <v>0.52638888888888891</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -11057,7 +11060,7 @@
         <v>0.81874999999999998</v>
       </c>
       <c r="D101" s="2">
-        <v>0.48541666666666666</v>
+        <v>0.52708333333333335</v>
       </c>
       <c r="E101">
         <v>6</v>
@@ -11152,7 +11155,7 @@
         <v>0.81944444444444453</v>
       </c>
       <c r="D102" s="2">
-        <v>0.4861111111111111</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -11247,7 +11250,7 @@
         <v>0.82013888888888886</v>
       </c>
       <c r="D103" s="2">
-        <v>0.48680555555555555</v>
+        <v>0.52847222222222223</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -11342,7 +11345,7 @@
         <v>0.8208333333333333</v>
       </c>
       <c r="D104" s="2">
-        <v>0.48749999999999999</v>
+        <v>0.52916666666666667</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -11437,7 +11440,7 @@
         <v>0.82152777777777775</v>
       </c>
       <c r="D105" s="2">
-        <v>0.48819444444444443</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -11532,7 +11535,7 @@
         <v>0.8222222222222223</v>
       </c>
       <c r="D106" s="2">
-        <v>0.48888888888888887</v>
+        <v>0.53055555555555556</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -11627,7 +11630,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D107" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.53125</v>
       </c>
       <c r="E107">
         <v>4</v>
@@ -11722,7 +11725,7 @@
         <v>0.82361111111111107</v>
       </c>
       <c r="D108" s="2">
-        <v>0.49027777777777781</v>
+        <v>0.53194444444444444</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -11817,7 +11820,7 @@
         <v>0.82430555555555562</v>
       </c>
       <c r="D109" s="2">
-        <v>0.4909722222222222</v>
+        <v>0.53263888888888888</v>
       </c>
       <c r="E109">
         <v>3</v>
@@ -11912,7 +11915,7 @@
         <v>0.82500000000000007</v>
       </c>
       <c r="D110" s="2">
-        <v>0.4916666666666667</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="E110">
         <v>2</v>
@@ -12007,7 +12010,7 @@
         <v>0.8256944444444444</v>
       </c>
       <c r="D111" s="2">
-        <v>0.49236111111111108</v>
+        <v>0.53402777777777777</v>
       </c>
       <c r="E111">
         <v>3</v>
@@ -12102,7 +12105,7 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="D112" s="2">
-        <v>0.49305555555555558</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -12197,7 +12200,7 @@
         <v>0.82708333333333339</v>
       </c>
       <c r="D113" s="2">
-        <v>0.49374999999999997</v>
+        <v>0.53541666666666665</v>
       </c>
       <c r="E113">
         <v>4</v>
@@ -12292,7 +12295,7 @@
         <v>0.82777777777777783</v>
       </c>
       <c r="D114" s="2">
-        <v>0.49444444444444446</v>
+        <v>0.53611111111111109</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -12387,7 +12390,7 @@
         <v>0.82847222222222217</v>
       </c>
       <c r="D115" s="2">
-        <v>0.49513888888888885</v>
+        <v>0.53680555555555554</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -12482,7 +12485,7 @@
         <v>0.82916666666666661</v>
       </c>
       <c r="D116" s="2">
-        <v>0.49583333333333335</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -12577,7 +12580,7 @@
         <v>0.82986111111111116</v>
       </c>
       <c r="D117" s="2">
-        <v>0.49652777777777773</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="E117">
         <v>2</v>
@@ -12672,7 +12675,7 @@
         <v>0.8305555555555556</v>
       </c>
       <c r="D118" s="2">
-        <v>0.49722222222222223</v>
+        <v>0.53888888888888886</v>
       </c>
       <c r="E118">
         <v>42</v>
@@ -12767,7 +12770,7 @@
         <v>0.83124999999999993</v>
       </c>
       <c r="D119" s="2">
-        <v>0.49791666666666662</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="E119">
         <v>58</v>
@@ -12862,7 +12865,7 @@
         <v>0.83194444444444438</v>
       </c>
       <c r="D120" s="2">
-        <v>0.49861111111111112</v>
+        <v>0.54027777777777775</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -12957,7 +12960,7 @@
         <v>0.83263888888888893</v>
       </c>
       <c r="D121" s="2">
-        <v>0.4993055555555555</v>
+        <v>0.54097222222222219</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -13052,7 +13055,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D122" s="2">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -13147,7 +13150,7 @@
         <v>0.8340277777777777</v>
       </c>
       <c r="D123" s="2">
-        <v>0.50069444444444444</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -13242,7 +13245,7 @@
         <v>0.83472222222222225</v>
       </c>
       <c r="D124" s="2">
-        <v>0.50138888888888888</v>
+        <v>0.54305555555555551</v>
       </c>
       <c r="E124">
         <v>4</v>
@@ -13337,7 +13340,7 @@
         <v>0.8354166666666667</v>
       </c>
       <c r="D125" s="2">
-        <v>0.50208333333333333</v>
+        <v>0.54375000000000007</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -13432,7 +13435,7 @@
         <v>0.83611111111111114</v>
       </c>
       <c r="D126" s="2">
-        <v>0.50277777777777777</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="E126">
         <v>3</v>
@@ -13527,7 +13530,7 @@
         <v>0.83680555555555547</v>
       </c>
       <c r="D127" s="2">
-        <v>0.50347222222222221</v>
+        <v>0.54513888888888895</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -13622,7 +13625,7 @@
         <v>0.83750000000000002</v>
       </c>
       <c r="D128" s="2">
-        <v>0.50416666666666665</v>
+        <v>0.54583333333333328</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -13717,7 +13720,7 @@
         <v>0.83819444444444446</v>
       </c>
       <c r="D129" s="2">
-        <v>0.50486111111111109</v>
+        <v>0.54652777777777783</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -13812,7 +13815,7 @@
         <v>0.83888888888888891</v>
       </c>
       <c r="D130" s="2">
-        <v>0.50555555555555554</v>
+        <v>0.54722222222222217</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -13907,7 +13910,7 @@
         <v>0.83958333333333324</v>
       </c>
       <c r="D131" s="2">
-        <v>0.50624999999999998</v>
+        <v>0.54791666666666672</v>
       </c>
       <c r="E131">
         <v>5</v>
@@ -14002,7 +14005,7 @@
         <v>0.84027777777777779</v>
       </c>
       <c r="D132" s="2">
-        <v>0.50694444444444442</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -14097,7 +14100,7 @@
         <v>0.84097222222222223</v>
       </c>
       <c r="D133" s="2">
-        <v>0.50763888888888886</v>
+        <v>0.5493055555555556</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -14192,7 +14195,7 @@
         <v>0.84166666666666667</v>
       </c>
       <c r="D134" s="2">
-        <v>0.5083333333333333</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -14287,7 +14290,7 @@
         <v>0.84236111111111101</v>
       </c>
       <c r="D135" s="2">
-        <v>0.50902777777777775</v>
+        <v>0.55069444444444449</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -14382,7 +14385,7 @@
         <v>0.84305555555555556</v>
       </c>
       <c r="D136" s="2">
-        <v>0.50972222222222219</v>
+        <v>0.55138888888888882</v>
       </c>
       <c r="E136">
         <v>4</v>
@@ -14477,7 +14480,7 @@
         <v>0.84375</v>
       </c>
       <c r="D137" s="2">
-        <v>0.51041666666666663</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -14572,7 +14575,7 @@
         <v>0.84444444444444444</v>
       </c>
       <c r="D138" s="2">
-        <v>0.51111111111111118</v>
+        <v>0.55277777777777781</v>
       </c>
       <c r="E138">
         <v>2</v>
@@ -14667,7 +14670,7 @@
         <v>0.84513888888888899</v>
       </c>
       <c r="D139" s="2">
-        <v>0.51180555555555551</v>
+        <v>0.55347222222222225</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -14762,7 +14765,7 @@
         <v>0.84583333333333333</v>
       </c>
       <c r="D140" s="2">
-        <v>0.51250000000000007</v>
+        <v>0.5541666666666667</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -14857,7 +14860,7 @@
         <v>0.84652777777777777</v>
       </c>
       <c r="D141" s="2">
-        <v>0.5131944444444444</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -14952,7 +14955,7 @@
         <v>0.84722222222222221</v>
       </c>
       <c r="D142" s="2">
-        <v>0.51388888888888895</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -15047,7 +15050,7 @@
         <v>0.84791666666666676</v>
       </c>
       <c r="D143" s="2">
-        <v>0.51458333333333328</v>
+        <v>0.55625000000000002</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -15142,7 +15145,7 @@
         <v>0.84861111111111109</v>
       </c>
       <c r="D144" s="2">
-        <v>0.51527777777777783</v>
+        <v>0.55694444444444446</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -15237,7 +15240,7 @@
         <v>0.84930555555555554</v>
       </c>
       <c r="D145" s="2">
-        <v>0.51597222222222217</v>
+        <v>0.55763888888888891</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -15332,7 +15335,7 @@
         <v>0.85</v>
       </c>
       <c r="D146" s="2">
-        <v>0.51666666666666672</v>
+        <v>0.55833333333333335</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -15427,7 +15430,7 @@
         <v>0.85069444444444453</v>
       </c>
       <c r="D147" s="2">
-        <v>0.51736111111111105</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="E147">
         <v>4</v>
@@ -15522,7 +15525,7 @@
         <v>0.85138888888888886</v>
       </c>
       <c r="D148" s="2">
-        <v>0.5180555555555556</v>
+        <v>0.55972222222222223</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -15617,7 +15620,7 @@
         <v>0.8520833333333333</v>
       </c>
       <c r="D149" s="2">
-        <v>0.51874999999999993</v>
+        <v>0.56041666666666667</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -15712,7 +15715,7 @@
         <v>0.85277777777777775</v>
       </c>
       <c r="D150" s="2">
-        <v>0.51944444444444449</v>
+        <v>0.56111111111111112</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -15807,7 +15810,7 @@
         <v>0.8534722222222223</v>
       </c>
       <c r="D151" s="2">
-        <v>0.52013888888888882</v>
+        <v>0.56180555555555556</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -15902,7 +15905,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D152" s="2">
-        <v>0.52083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -15997,7 +16000,7 @@
         <v>0.85486111111111107</v>
       </c>
       <c r="D153" s="2">
-        <v>0.52152777777777781</v>
+        <v>0.56319444444444444</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -16092,7 +16095,7 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="D154" s="2">
-        <v>0.52222222222222225</v>
+        <v>0.56388888888888888</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -16187,7 +16190,7 @@
         <v>0.85625000000000007</v>
       </c>
       <c r="D155" s="2">
-        <v>0.5229166666666667</v>
+        <v>0.56458333333333333</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -16282,7 +16285,7 @@
         <v>0.8569444444444444</v>
       </c>
       <c r="D156" s="2">
-        <v>0.52361111111111114</v>
+        <v>0.56527777777777777</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -16377,7 +16380,7 @@
         <v>0.85763888888888884</v>
       </c>
       <c r="D157" s="2">
-        <v>0.52430555555555558</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -16472,7 +16475,7 @@
         <v>0.85833333333333339</v>
       </c>
       <c r="D158" s="2">
-        <v>0.52500000000000002</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -16567,7 +16570,7 @@
         <v>0.85902777777777783</v>
       </c>
       <c r="D159" s="2">
-        <v>0.52569444444444446</v>
+        <v>0.56736111111111109</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -16662,7 +16665,7 @@
         <v>0.85972222222222217</v>
       </c>
       <c r="D160" s="2">
-        <v>0.52638888888888891</v>
+        <v>0.56805555555555554</v>
       </c>
       <c r="E160">
         <v>2</v>
@@ -16757,7 +16760,7 @@
         <v>0.86041666666666661</v>
       </c>
       <c r="D161" s="2">
-        <v>0.52708333333333335</v>
+        <v>0.56874999999999998</v>
       </c>
       <c r="E161">
         <v>2</v>
@@ -16852,7 +16855,7 @@
         <v>0.86111111111111116</v>
       </c>
       <c r="D162" s="2">
-        <v>0.52777777777777779</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -16947,7 +16950,7 @@
         <v>0.8618055555555556</v>
       </c>
       <c r="D163" s="2">
-        <v>0.52847222222222223</v>
+        <v>0.57013888888888886</v>
       </c>
       <c r="E163">
         <v>4</v>
@@ -17042,7 +17045,7 @@
         <v>0.86249999999999993</v>
       </c>
       <c r="D164" s="2">
-        <v>0.52916666666666667</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -17137,7 +17140,7 @@
         <v>0.86319444444444438</v>
       </c>
       <c r="D165" s="2">
-        <v>0.52986111111111112</v>
+        <v>0.57152777777777775</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -17232,7 +17235,7 @@
         <v>0.86388888888888893</v>
       </c>
       <c r="D166" s="2">
-        <v>0.53055555555555556</v>
+        <v>0.57222222222222219</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -17327,7 +17330,7 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D167" s="2">
-        <v>0.53125</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -17422,7 +17425,7 @@
         <v>0.8652777777777777</v>
       </c>
       <c r="D168" s="2">
-        <v>0.53194444444444444</v>
+        <v>0.57361111111111118</v>
       </c>
       <c r="E168">
         <v>2</v>
@@ -17517,7 +17520,7 @@
         <v>0.86597222222222225</v>
       </c>
       <c r="D169" s="2">
-        <v>0.53263888888888888</v>
+        <v>0.57430555555555551</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -17612,7 +17615,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="D170" s="2">
-        <v>0.53333333333333333</v>
+        <v>0.57500000000000007</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -17707,7 +17710,7 @@
         <v>0.86736111111111114</v>
       </c>
       <c r="D171" s="2">
-        <v>0.53402777777777777</v>
+        <v>0.5756944444444444</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -17802,7 +17805,7 @@
         <v>0.86805555555555547</v>
       </c>
       <c r="D172" s="2">
-        <v>0.53472222222222221</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -17897,7 +17900,7 @@
         <v>0.86875000000000002</v>
       </c>
       <c r="D173" s="2">
-        <v>0.53541666666666665</v>
+        <v>0.57708333333333328</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -17992,7 +17995,7 @@
         <v>0.86944444444444446</v>
       </c>
       <c r="D174" s="2">
-        <v>0.53611111111111109</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="E174">
         <v>2</v>
@@ -18087,7 +18090,7 @@
         <v>0.87013888888888891</v>
       </c>
       <c r="D175" s="2">
-        <v>0.53680555555555554</v>
+        <v>0.57847222222222217</v>
       </c>
       <c r="E175">
         <v>3</v>
@@ -18182,7 +18185,7 @@
         <v>0.87083333333333324</v>
       </c>
       <c r="D176" s="2">
-        <v>0.53749999999999998</v>
+        <v>0.57916666666666672</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -18277,7 +18280,7 @@
         <v>0.87152777777777779</v>
       </c>
       <c r="D177" s="2">
-        <v>0.53819444444444442</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -18372,7 +18375,7 @@
         <v>0.87222222222222223</v>
       </c>
       <c r="D178" s="2">
-        <v>0.53888888888888886</v>
+        <v>0.5805555555555556</v>
       </c>
       <c r="E178">
         <v>2</v>
@@ -18467,7 +18470,7 @@
         <v>0.87291666666666667</v>
       </c>
       <c r="D179" s="2">
-        <v>0.5395833333333333</v>
+        <v>0.58124999999999993</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -18562,7 +18565,7 @@
         <v>0.87361111111111101</v>
       </c>
       <c r="D180" s="2">
-        <v>0.54027777777777775</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="E180">
         <v>2</v>
@@ -18657,7 +18660,7 @@
         <v>0.87430555555555556</v>
       </c>
       <c r="D181" s="2">
-        <v>0.54097222222222219</v>
+        <v>0.58263888888888882</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -18752,7 +18755,7 @@
         <v>0.875</v>
       </c>
       <c r="D182" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -18847,7 +18850,7 @@
         <v>0.87569444444444444</v>
       </c>
       <c r="D183" s="2">
-        <v>0.54236111111111118</v>
+        <v>0.58402777777777781</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -18942,7 +18945,7 @@
         <v>0.87638888888888899</v>
       </c>
       <c r="D184" s="2">
-        <v>0.54305555555555551</v>
+        <v>0.58472222222222225</v>
       </c>
       <c r="E184">
         <v>29</v>
@@ -19037,7 +19040,7 @@
         <v>0.87708333333333333</v>
       </c>
       <c r="D185" s="2">
-        <v>0.54375000000000007</v>
+        <v>0.5854166666666667</v>
       </c>
       <c r="E185">
         <v>60</v>
@@ -19132,7 +19135,7 @@
         <v>0.87777777777777777</v>
       </c>
       <c r="D186" s="2">
-        <v>0.5444444444444444</v>
+        <v>0.58611111111111114</v>
       </c>
       <c r="E186">
         <v>6</v>
@@ -19227,7 +19230,7 @@
         <v>0.87847222222222221</v>
       </c>
       <c r="D187" s="2">
-        <v>0.54513888888888895</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -19322,7 +19325,7 @@
         <v>0.87916666666666676</v>
       </c>
       <c r="D188" s="2">
-        <v>0.54583333333333328</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -19417,7 +19420,7 @@
         <v>0.87986111111111109</v>
       </c>
       <c r="D189" s="2">
-        <v>0.54652777777777783</v>
+        <v>0.58819444444444446</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -19512,7 +19515,7 @@
         <v>0.88055555555555554</v>
       </c>
       <c r="D190" s="2">
-        <v>0.54722222222222217</v>
+        <v>0.58888888888888891</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -19607,7 +19610,7 @@
         <v>0.88124999999999998</v>
       </c>
       <c r="D191" s="2">
-        <v>0.54791666666666672</v>
+        <v>0.58958333333333335</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -19702,7 +19705,7 @@
         <v>0.88194444444444453</v>
       </c>
       <c r="D192" s="2">
-        <v>0.54861111111111105</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -19797,7 +19800,7 @@
         <v>0.88263888888888886</v>
       </c>
       <c r="D193" s="2">
-        <v>0.5493055555555556</v>
+        <v>0.59097222222222223</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -19892,7 +19895,7 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="D194" s="2">
-        <v>0.54999999999999993</v>
+        <v>0.59166666666666667</v>
       </c>
       <c r="E194">
         <v>8</v>
@@ -19987,7 +19990,7 @@
         <v>0.88402777777777775</v>
       </c>
       <c r="D195" s="2">
-        <v>0.55069444444444449</v>
+        <v>0.59236111111111112</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -20082,7 +20085,7 @@
         <v>0.8847222222222223</v>
       </c>
       <c r="D196" s="2">
-        <v>0.55138888888888882</v>
+        <v>0.59305555555555556</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -20177,7 +20180,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="D197" s="2">
-        <v>0.55208333333333337</v>
+        <v>0.59375</v>
       </c>
       <c r="E197">
         <v>16</v>
@@ -20272,7 +20275,7 @@
         <v>0.88611111111111107</v>
       </c>
       <c r="D198" s="2">
-        <v>0.55277777777777781</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="E198">
         <v>13</v>
@@ -20367,7 +20370,7 @@
         <v>0.88680555555555562</v>
       </c>
       <c r="D199" s="2">
-        <v>0.55347222222222225</v>
+        <v>0.59513888888888888</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -20462,7 +20465,7 @@
         <v>0.88750000000000007</v>
       </c>
       <c r="D200" s="2">
-        <v>0.5541666666666667</v>
+        <v>0.59583333333333333</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -20557,7 +20560,7 @@
         <v>0.8881944444444444</v>
       </c>
       <c r="D201" s="2">
-        <v>0.55486111111111114</v>
+        <v>0.59652777777777777</v>
       </c>
       <c r="E201">
         <v>10</v>
@@ -20652,7 +20655,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="D202" s="2">
-        <v>0.55555555555555558</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -20747,7 +20750,7 @@
         <v>0.88958333333333339</v>
       </c>
       <c r="D203" s="2">
-        <v>0.55625000000000002</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -20842,7 +20845,7 @@
         <v>0.89027777777777783</v>
       </c>
       <c r="D204" s="2">
-        <v>0.55694444444444446</v>
+        <v>0.59861111111111109</v>
       </c>
       <c r="E204">
         <v>12</v>
@@ -20937,7 +20940,7 @@
         <v>0.89097222222222217</v>
       </c>
       <c r="D205" s="2">
-        <v>0.55763888888888891</v>
+        <v>0.59930555555555554</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -21032,7 +21035,7 @@
         <v>0.89166666666666661</v>
       </c>
       <c r="D206" s="2">
-        <v>0.55833333333333335</v>
+        <v>0.6</v>
       </c>
       <c r="E206">
         <v>2</v>
@@ -21127,7 +21130,7 @@
         <v>0.89236111111111116</v>
       </c>
       <c r="D207" s="2">
-        <v>0.55902777777777779</v>
+        <v>0.60069444444444442</v>
       </c>
       <c r="E207">
         <v>5</v>
@@ -21222,7 +21225,7 @@
         <v>0.8930555555555556</v>
       </c>
       <c r="D208" s="2">
-        <v>0.55972222222222223</v>
+        <v>0.60138888888888886</v>
       </c>
       <c r="E208">
         <v>2</v>
@@ -21317,7 +21320,7 @@
         <v>0.89374999999999993</v>
       </c>
       <c r="D209" s="2">
-        <v>0.56041666666666667</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -21412,7 +21415,7 @@
         <v>0.89444444444444438</v>
       </c>
       <c r="D210" s="2">
-        <v>0.56111111111111112</v>
+        <v>0.60277777777777775</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -21507,7 +21510,7 @@
         <v>0.89513888888888893</v>
       </c>
       <c r="D211" s="2">
-        <v>0.56180555555555556</v>
+        <v>0.60347222222222219</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -21602,7 +21605,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D212" s="2">
-        <v>0.5625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -21697,7 +21700,7 @@
         <v>0.8965277777777777</v>
       </c>
       <c r="D213" s="2">
-        <v>0.56319444444444444</v>
+        <v>0.60486111111111118</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -21792,7 +21795,7 @@
         <v>0.89722222222222225</v>
       </c>
       <c r="D214" s="2">
-        <v>0.56388888888888888</v>
+        <v>0.60555555555555551</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -21887,7 +21890,7 @@
         <v>0.8979166666666667</v>
       </c>
       <c r="D215" s="2">
-        <v>0.56458333333333333</v>
+        <v>0.60625000000000007</v>
       </c>
       <c r="E215">
         <v>59</v>
@@ -21982,7 +21985,7 @@
         <v>0.89861111111111114</v>
       </c>
       <c r="D216" s="2">
-        <v>0.56527777777777777</v>
+        <v>0.6069444444444444</v>
       </c>
       <c r="E216">
         <v>15</v>
@@ -22077,7 +22080,7 @@
         <v>0.89930555555555547</v>
       </c>
       <c r="D217" s="2">
-        <v>0.56597222222222221</v>
+        <v>0.60763888888888895</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -22172,7 +22175,7 @@
         <v>0.9</v>
       </c>
       <c r="D218" s="2">
-        <v>0.56666666666666665</v>
+        <v>0.60833333333333328</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -22267,7 +22270,7 @@
         <v>0.90069444444444446</v>
       </c>
       <c r="D219" s="2">
-        <v>0.56736111111111109</v>
+        <v>0.60902777777777783</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -22362,7 +22365,7 @@
         <v>0.90138888888888891</v>
       </c>
       <c r="D220" s="2">
-        <v>0.56805555555555554</v>
+        <v>0.60972222222222217</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -22457,7 +22460,7 @@
         <v>0.90208333333333324</v>
       </c>
       <c r="D221" s="2">
-        <v>0.56874999999999998</v>
+        <v>0.61041666666666672</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -22552,7 +22555,7 @@
         <v>0.90277777777777779</v>
       </c>
       <c r="D222" s="2">
-        <v>0.56944444444444442</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -22647,7 +22650,7 @@
         <v>0.90347222222222223</v>
       </c>
       <c r="D223" s="2">
-        <v>0.57013888888888886</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="E223">
         <v>6</v>
@@ -22742,7 +22745,7 @@
         <v>0.90416666666666667</v>
       </c>
       <c r="D224" s="2">
-        <v>0.5708333333333333</v>
+        <v>0.61249999999999993</v>
       </c>
       <c r="E224">
         <v>9</v>
@@ -22837,7 +22840,7 @@
         <v>0.90486111111111101</v>
       </c>
       <c r="D225" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.61319444444444449</v>
       </c>
       <c r="E225">
         <v>15</v>
@@ -22932,7 +22935,7 @@
         <v>0.90555555555555556</v>
       </c>
       <c r="D226" s="2">
-        <v>0.57222222222222219</v>
+        <v>0.61388888888888882</v>
       </c>
       <c r="E226">
         <v>5</v>
@@ -23027,7 +23030,7 @@
         <v>0.90625</v>
       </c>
       <c r="D227" s="2">
-        <v>0.57291666666666663</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="E227">
         <v>2</v>
@@ -23122,7 +23125,7 @@
         <v>0.90694444444444444</v>
       </c>
       <c r="D228" s="2">
-        <v>0.57361111111111118</v>
+        <v>0.61527777777777781</v>
       </c>
       <c r="E228">
         <v>7</v>
@@ -23217,7 +23220,7 @@
         <v>0.90763888888888899</v>
       </c>
       <c r="D229" s="2">
-        <v>0.57430555555555551</v>
+        <v>0.61597222222222225</v>
       </c>
       <c r="E229">
         <v>4</v>
@@ -23312,7 +23315,7 @@
         <v>0.90833333333333333</v>
       </c>
       <c r="D230" s="2">
-        <v>0.57500000000000007</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="E230">
         <v>2</v>
@@ -23407,7 +23410,7 @@
         <v>0.90902777777777777</v>
       </c>
       <c r="D231" s="2">
-        <v>0.5756944444444444</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="E231">
         <v>8</v>
@@ -23502,7 +23505,7 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="D232" s="2">
-        <v>0.57638888888888895</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="E232">
         <v>2</v>
@@ -23597,7 +23600,7 @@
         <v>0.91041666666666676</v>
       </c>
       <c r="D233" s="2">
-        <v>0.57708333333333328</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -23692,7 +23695,7 @@
         <v>0.91111111111111109</v>
       </c>
       <c r="D234" s="2">
-        <v>0.57777777777777783</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -23787,7 +23790,7 @@
         <v>0.91180555555555554</v>
       </c>
       <c r="D235" s="2">
-        <v>0.57847222222222217</v>
+        <v>0.62013888888888891</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -23882,7 +23885,7 @@
         <v>0.91249999999999998</v>
       </c>
       <c r="D236" s="2">
-        <v>0.57916666666666672</v>
+        <v>0.62083333333333335</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -23977,7 +23980,7 @@
         <v>0.91319444444444453</v>
       </c>
       <c r="D237" s="2">
-        <v>0.57986111111111105</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -24072,7 +24075,7 @@
         <v>0.91388888888888886</v>
       </c>
       <c r="D238" s="2">
-        <v>0.5805555555555556</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -24167,7 +24170,7 @@
         <v>0.9145833333333333</v>
       </c>
       <c r="D239" s="2">
-        <v>0.58124999999999993</v>
+        <v>0.62291666666666667</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -24262,7 +24265,7 @@
         <v>0.91527777777777775</v>
       </c>
       <c r="D240" s="2">
-        <v>0.58194444444444449</v>
+        <v>0.62361111111111112</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -24357,7 +24360,7 @@
         <v>0.9159722222222223</v>
       </c>
       <c r="D241" s="2">
-        <v>0.58263888888888882</v>
+        <v>0.62430555555555556</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -24452,7 +24455,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D242" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -24547,7 +24550,7 @@
         <v>0.91736111111111107</v>
       </c>
       <c r="D243" s="2">
-        <v>0.58402777777777781</v>
+        <v>0.62569444444444444</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -24642,7 +24645,7 @@
         <v>0.91805555555555562</v>
       </c>
       <c r="D244" s="2">
-        <v>0.58472222222222225</v>
+        <v>0.62638888888888888</v>
       </c>
       <c r="E244">
         <v>2</v>
@@ -24737,7 +24740,7 @@
         <v>0.91875000000000007</v>
       </c>
       <c r="D245" s="2">
-        <v>0.5854166666666667</v>
+        <v>0.62708333333333333</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -24832,7 +24835,7 @@
         <v>0.9194444444444444</v>
       </c>
       <c r="D246" s="2">
-        <v>0.58611111111111114</v>
+        <v>0.62777777777777777</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -24927,7 +24930,7 @@
         <v>0.92013888888888884</v>
       </c>
       <c r="D247" s="2">
-        <v>0.58680555555555558</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="E247">
         <v>2</v>
@@ -25022,7 +25025,7 @@
         <v>0.92083333333333339</v>
       </c>
       <c r="D248" s="2">
-        <v>0.58750000000000002</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="E248">
         <v>2</v>
@@ -25117,7 +25120,7 @@
         <v>0.92152777777777783</v>
       </c>
       <c r="D249" s="2">
-        <v>0.58819444444444446</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="E249">
         <v>2</v>
@@ -25212,7 +25215,7 @@
         <v>0.92222222222222217</v>
       </c>
       <c r="D250" s="2">
-        <v>0.58888888888888891</v>
+        <v>0.63055555555555554</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -25307,7 +25310,7 @@
         <v>0.92291666666666661</v>
       </c>
       <c r="D251" s="2">
-        <v>0.58958333333333335</v>
+        <v>0.63124999999999998</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -25402,7 +25405,7 @@
         <v>0.92361111111111116</v>
       </c>
       <c r="D252" s="2">
-        <v>0.59027777777777779</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -25497,7 +25500,7 @@
         <v>0.9243055555555556</v>
       </c>
       <c r="D253" s="2">
-        <v>0.59097222222222223</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -25592,7 +25595,7 @@
         <v>0.92499999999999993</v>
       </c>
       <c r="D254" s="2">
-        <v>0.59166666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -25687,7 +25690,7 @@
         <v>0.92569444444444438</v>
       </c>
       <c r="D255" s="2">
-        <v>0.59236111111111112</v>
+        <v>0.63402777777777775</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -25782,7 +25785,7 @@
         <v>0.92638888888888893</v>
       </c>
       <c r="D256" s="2">
-        <v>0.59305555555555556</v>
+        <v>0.63472222222222219</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -25877,7 +25880,7 @@
         <v>0.92708333333333337</v>
       </c>
       <c r="D257" s="2">
-        <v>0.59375</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -25972,7 +25975,7 @@
         <v>0.9277777777777777</v>
       </c>
       <c r="D258" s="2">
-        <v>0.59444444444444444</v>
+        <v>0.63611111111111118</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -26067,7 +26070,7 @@
         <v>0.92847222222222225</v>
       </c>
       <c r="D259" s="2">
-        <v>0.59513888888888888</v>
+        <v>0.63680555555555551</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -26162,7 +26165,7 @@
         <v>0.9291666666666667</v>
       </c>
       <c r="D260" s="2">
-        <v>0.59583333333333333</v>
+        <v>0.63750000000000007</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -26257,7 +26260,7 @@
         <v>0.92986111111111114</v>
       </c>
       <c r="D261" s="2">
-        <v>0.59652777777777777</v>
+        <v>0.6381944444444444</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -26352,7 +26355,7 @@
         <v>0.93055555555555547</v>
       </c>
       <c r="D262" s="2">
-        <v>0.59722222222222221</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="E262">
         <v>2</v>
@@ -26447,7 +26450,7 @@
         <v>0.93125000000000002</v>
       </c>
       <c r="D263" s="2">
-        <v>0.59791666666666665</v>
+        <v>0.63958333333333328</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -26542,7 +26545,7 @@
         <v>0.93194444444444446</v>
       </c>
       <c r="D264" s="2">
-        <v>0.59861111111111109</v>
+        <v>0.64027777777777783</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -26637,7 +26640,7 @@
         <v>0.93263888888888891</v>
       </c>
       <c r="D265" s="2">
-        <v>0.59930555555555554</v>
+        <v>0.64097222222222217</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -26732,7 +26735,7 @@
         <v>0.93333333333333324</v>
       </c>
       <c r="D266" s="2">
-        <v>0.6</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="E266">
         <v>3</v>
@@ -26827,7 +26830,7 @@
         <v>0.93402777777777779</v>
       </c>
       <c r="D267" s="2">
-        <v>0.60069444444444442</v>
+        <v>0.64236111111111105</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -26922,7 +26925,7 @@
         <v>0.93472222222222223</v>
       </c>
       <c r="D268" s="2">
-        <v>0.60138888888888886</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -27017,7 +27020,7 @@
         <v>0.93541666666666667</v>
       </c>
       <c r="D269" s="2">
-        <v>0.6020833333333333</v>
+        <v>0.64374999999999993</v>
       </c>
       <c r="E269">
         <v>6</v>
@@ -27112,7 +27115,7 @@
         <v>0.93611111111111101</v>
       </c>
       <c r="D270" s="2">
-        <v>0.60277777777777775</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -27207,7 +27210,7 @@
         <v>0.93680555555555556</v>
       </c>
       <c r="D271" s="2">
-        <v>0.60347222222222219</v>
+        <v>0.64513888888888882</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -27302,7 +27305,7 @@
         <v>0.9375</v>
       </c>
       <c r="D272" s="2">
-        <v>0.60416666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -27397,7 +27400,7 @@
         <v>0.93819444444444444</v>
       </c>
       <c r="D273" s="2">
-        <v>0.60486111111111118</v>
+        <v>0.64652777777777781</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -27492,7 +27495,7 @@
         <v>0.93888888888888899</v>
       </c>
       <c r="D274" s="2">
-        <v>0.60555555555555551</v>
+        <v>0.64722222222222225</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -27587,7 +27590,7 @@
         <v>0.93958333333333333</v>
       </c>
       <c r="D275" s="2">
-        <v>0.60625000000000007</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -27682,7 +27685,7 @@
         <v>0.94027777777777777</v>
       </c>
       <c r="D276" s="2">
-        <v>0.6069444444444444</v>
+        <v>0.64861111111111114</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -27777,7 +27780,7 @@
         <v>0.94097222222222221</v>
       </c>
       <c r="D277" s="2">
-        <v>0.60763888888888895</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="E277">
         <v>2</v>
@@ -27872,7 +27875,7 @@
         <v>0.94166666666666676</v>
       </c>
       <c r="D278" s="2">
-        <v>0.60833333333333328</v>
+        <v>0.65</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -27967,7 +27970,7 @@
         <v>0.94236111111111109</v>
       </c>
       <c r="D279" s="2">
-        <v>0.60902777777777783</v>
+        <v>0.65069444444444446</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -28062,7 +28065,7 @@
         <v>0.94305555555555554</v>
       </c>
       <c r="D280" s="2">
-        <v>0.60972222222222217</v>
+        <v>0.65138888888888891</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -28157,7 +28160,7 @@
         <v>0.94374999999999998</v>
       </c>
       <c r="D281" s="2">
-        <v>0.61041666666666672</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -28252,7 +28255,7 @@
         <v>0.94444444444444453</v>
       </c>
       <c r="D282" s="2">
-        <v>0.61111111111111105</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -28347,7 +28350,7 @@
         <v>0.94513888888888886</v>
       </c>
       <c r="D283" s="2">
-        <v>0.6118055555555556</v>
+        <v>0.65347222222222223</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -28442,7 +28445,7 @@
         <v>0.9458333333333333</v>
       </c>
       <c r="D284" s="2">
-        <v>0.61249999999999993</v>
+        <v>0.65416666666666667</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -28537,7 +28540,7 @@
         <v>0.94652777777777775</v>
       </c>
       <c r="D285" s="2">
-        <v>0.61319444444444449</v>
+        <v>0.65486111111111112</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -28632,7 +28635,7 @@
         <v>0.9472222222222223</v>
       </c>
       <c r="D286" s="2">
-        <v>0.61388888888888882</v>
+        <v>0.65555555555555556</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -28727,7 +28730,7 @@
         <v>0.94791666666666663</v>
       </c>
       <c r="D287" s="2">
-        <v>0.61458333333333337</v>
+        <v>0.65625</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -28822,7 +28825,7 @@
         <v>0.94861111111111107</v>
       </c>
       <c r="D288" s="2">
-        <v>0.61527777777777781</v>
+        <v>0.65694444444444444</v>
       </c>
       <c r="E288">
         <v>2</v>
@@ -28917,7 +28920,7 @@
         <v>0.94930555555555562</v>
       </c>
       <c r="D289" s="2">
-        <v>0.61597222222222225</v>
+        <v>0.65763888888888888</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -29012,7 +29015,7 @@
         <v>0.95000000000000007</v>
       </c>
       <c r="D290" s="2">
-        <v>0.6166666666666667</v>
+        <v>0.65833333333333333</v>
       </c>
       <c r="E290">
         <v>3</v>
@@ -29107,7 +29110,7 @@
         <v>0.9506944444444444</v>
       </c>
       <c r="D291" s="2">
-        <v>0.61736111111111114</v>
+        <v>0.65902777777777777</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -29202,7 +29205,7 @@
         <v>0.95138888888888884</v>
       </c>
       <c r="D292" s="2">
-        <v>0.61805555555555558</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="E292">
         <v>5</v>
@@ -29297,7 +29300,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="D293" s="2">
-        <v>0.61875000000000002</v>
+        <v>0.66041666666666665</v>
       </c>
       <c r="E293">
         <v>3</v>
@@ -29392,7 +29395,7 @@
         <v>0.95277777777777783</v>
       </c>
       <c r="D294" s="2">
-        <v>0.61944444444444446</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -29487,7 +29490,7 @@
         <v>0.95347222222222217</v>
       </c>
       <c r="D295" s="2">
-        <v>0.62013888888888891</v>
+        <v>0.66180555555555554</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -29582,7 +29585,7 @@
         <v>0.95416666666666661</v>
       </c>
       <c r="D296" s="2">
-        <v>0.62083333333333335</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -29677,7 +29680,7 @@
         <v>0.95486111111111116</v>
       </c>
       <c r="D297" s="2">
-        <v>0.62152777777777779</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -29772,7 +29775,7 @@
         <v>0.9555555555555556</v>
       </c>
       <c r="D298" s="2">
-        <v>0.62222222222222223</v>
+        <v>0.66388888888888886</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -29867,7 +29870,7 @@
         <v>0.95624999999999993</v>
       </c>
       <c r="D299" s="2">
-        <v>0.62291666666666667</v>
+        <v>0.6645833333333333</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -29962,7 +29965,7 @@
         <v>0.95694444444444438</v>
       </c>
       <c r="D300" s="2">
-        <v>0.62361111111111112</v>
+        <v>0.66527777777777775</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -30057,7 +30060,7 @@
         <v>0.95763888888888893</v>
       </c>
       <c r="D301" s="2">
-        <v>0.62430555555555556</v>
+        <v>0.66597222222222219</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -30152,7 +30155,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D302" s="2">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -30247,7 +30250,7 @@
         <v>0.9590277777777777</v>
       </c>
       <c r="D303" s="2">
-        <v>0.62569444444444444</v>
+        <v>0.66736111111111107</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -30342,7 +30345,7 @@
         <v>0.95972222222222225</v>
       </c>
       <c r="D304" s="2">
-        <v>0.62638888888888888</v>
+        <v>0.66805555555555562</v>
       </c>
       <c r="E304">
         <v>4</v>
@@ -30437,7 +30440,7 @@
         <v>0.9604166666666667</v>
       </c>
       <c r="D305" s="2">
-        <v>0.62708333333333333</v>
+        <v>0.66875000000000007</v>
       </c>
       <c r="E305">
         <v>2</v>
@@ -30532,7 +30535,7 @@
         <v>0.96111111111111114</v>
       </c>
       <c r="D306" s="2">
-        <v>0.62777777777777777</v>
+        <v>0.6694444444444444</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -30627,7 +30630,7 @@
         <v>0.96180555555555547</v>
       </c>
       <c r="D307" s="2">
-        <v>0.62847222222222221</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -30722,7 +30725,7 @@
         <v>0.96250000000000002</v>
       </c>
       <c r="D308" s="2">
-        <v>0.62916666666666665</v>
+        <v>0.67083333333333339</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -30817,7 +30820,7 @@
         <v>0.96319444444444446</v>
       </c>
       <c r="D309" s="2">
-        <v>0.62986111111111109</v>
+        <v>0.67152777777777783</v>
       </c>
       <c r="E309">
         <v>3</v>
@@ -30912,7 +30915,7 @@
         <v>0.96388888888888891</v>
       </c>
       <c r="D310" s="2">
-        <v>0.63055555555555554</v>
+        <v>0.67222222222222217</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -31007,7 +31010,7 @@
         <v>0.96458333333333324</v>
       </c>
       <c r="D311" s="2">
-        <v>0.63124999999999998</v>
+        <v>0.67291666666666661</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -31102,7 +31105,7 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="D312" s="2">
-        <v>0.63194444444444442</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="E312">
         <v>4</v>
@@ -31197,7 +31200,7 @@
         <v>0.96597222222222223</v>
       </c>
       <c r="D313" s="2">
-        <v>0.63263888888888886</v>
+        <v>0.6743055555555556</v>
       </c>
       <c r="E313">
         <v>4</v>
@@ -31292,7 +31295,7 @@
         <v>0.96666666666666667</v>
       </c>
       <c r="D314" s="2">
-        <v>0.6333333333333333</v>
+        <v>0.67499999999999993</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -31387,7 +31390,7 @@
         <v>0.96736111111111101</v>
       </c>
       <c r="D315" s="2">
-        <v>0.63402777777777775</v>
+        <v>0.67569444444444438</v>
       </c>
       <c r="E315">
         <v>2</v>
@@ -31482,7 +31485,7 @@
         <v>0.96805555555555556</v>
       </c>
       <c r="D316" s="2">
-        <v>0.63472222222222219</v>
+        <v>0.67638888888888893</v>
       </c>
       <c r="E316">
         <v>3</v>
@@ -31577,7 +31580,7 @@
         <v>0.96875</v>
       </c>
       <c r="D317" s="2">
-        <v>0.63541666666666663</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -31672,7 +31675,7 @@
         <v>0.96944444444444444</v>
       </c>
       <c r="D318" s="2">
-        <v>0.63611111111111118</v>
+        <v>0.6777777777777777</v>
       </c>
       <c r="E318">
         <v>3</v>
@@ -31767,7 +31770,7 @@
         <v>0.97013888888888899</v>
       </c>
       <c r="D319" s="2">
-        <v>0.63680555555555551</v>
+        <v>0.67847222222222225</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -31862,7 +31865,7 @@
         <v>0.97083333333333333</v>
       </c>
       <c r="D320" s="2">
-        <v>0.63750000000000007</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -31957,7 +31960,7 @@
         <v>0.97152777777777777</v>
       </c>
       <c r="D321" s="2">
-        <v>0.6381944444444444</v>
+        <v>0.67986111111111114</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -32052,7 +32055,7 @@
         <v>0.97222222222222221</v>
       </c>
       <c r="D322" s="2">
-        <v>0.63888888888888895</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -32147,7 +32150,7 @@
         <v>0.97291666666666676</v>
       </c>
       <c r="D323" s="2">
-        <v>0.63958333333333328</v>
+        <v>0.68125000000000002</v>
       </c>
       <c r="E323">
         <v>6</v>
@@ -32242,7 +32245,7 @@
         <v>0.97361111111111109</v>
       </c>
       <c r="D324" s="2">
-        <v>0.64027777777777783</v>
+        <v>0.68194444444444446</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -32337,7 +32340,7 @@
         <v>0.97430555555555554</v>
       </c>
       <c r="D325" s="2">
-        <v>0.64097222222222217</v>
+        <v>0.68263888888888891</v>
       </c>
       <c r="E325">
         <v>2</v>
@@ -32432,7 +32435,7 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="D326" s="2">
-        <v>0.64166666666666672</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -32527,7 +32530,7 @@
         <v>0.97569444444444453</v>
       </c>
       <c r="D327" s="2">
-        <v>0.64236111111111105</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="E327">
         <v>2</v>
@@ -32622,7 +32625,7 @@
         <v>0.97638888888888886</v>
       </c>
       <c r="D328" s="2">
-        <v>0.6430555555555556</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -32717,7 +32720,7 @@
         <v>0.9770833333333333</v>
       </c>
       <c r="D329" s="2">
-        <v>0.64374999999999993</v>
+        <v>0.68541666666666667</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -32812,7 +32815,7 @@
         <v>0.97777777777777775</v>
       </c>
       <c r="D330" s="2">
-        <v>0.64444444444444449</v>
+        <v>0.68611111111111101</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -32907,7 +32910,7 @@
         <v>0.9784722222222223</v>
       </c>
       <c r="D331" s="2">
-        <v>0.64513888888888882</v>
+        <v>0.68680555555555556</v>
       </c>
       <c r="E331">
         <v>5</v>
@@ -33002,7 +33005,7 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="D332" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="E332">
         <v>4</v>
@@ -33097,7 +33100,7 @@
         <v>0.97986111111111107</v>
       </c>
       <c r="D333" s="2">
-        <v>0.64652777777777781</v>
+        <v>0.68819444444444444</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -33192,7 +33195,7 @@
         <v>0.98055555555555562</v>
       </c>
       <c r="D334" s="2">
-        <v>0.64722222222222225</v>
+        <v>0.68888888888888899</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -33287,7 +33290,7 @@
         <v>0.98125000000000007</v>
       </c>
       <c r="D335" s="2">
-        <v>0.6479166666666667</v>
+        <v>0.68958333333333333</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -33382,7 +33385,7 @@
         <v>0.9819444444444444</v>
       </c>
       <c r="D336" s="2">
-        <v>0.64861111111111114</v>
+        <v>0.69027777777777777</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -33477,7 +33480,7 @@
         <v>0.98263888888888884</v>
       </c>
       <c r="D337" s="2">
-        <v>0.64930555555555558</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -33572,7 +33575,7 @@
         <v>0.98333333333333339</v>
       </c>
       <c r="D338" s="2">
-        <v>0.65</v>
+        <v>0.69166666666666676</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -33667,7 +33670,7 @@
         <v>0.98402777777777783</v>
       </c>
       <c r="D339" s="2">
-        <v>0.65069444444444446</v>
+        <v>0.69236111111111109</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -33762,7 +33765,7 @@
         <v>0.98472222222222217</v>
       </c>
       <c r="D340" s="2">
-        <v>0.65138888888888891</v>
+        <v>0.69305555555555554</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -33857,7 +33860,7 @@
         <v>0.98541666666666661</v>
       </c>
       <c r="D341" s="2">
-        <v>0.65208333333333335</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -33952,7 +33955,7 @@
         <v>0.98611111111111116</v>
       </c>
       <c r="D342" s="2">
-        <v>0.65277777777777779</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -34047,7 +34050,7 @@
         <v>0.9868055555555556</v>
       </c>
       <c r="D343" s="2">
-        <v>0.65347222222222223</v>
+        <v>0.69513888888888886</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -34142,7 +34145,7 @@
         <v>0.98749999999999993</v>
       </c>
       <c r="D344" s="2">
-        <v>0.65416666666666667</v>
+        <v>0.6958333333333333</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -34237,7 +34240,7 @@
         <v>0.98819444444444438</v>
       </c>
       <c r="D345" s="2">
-        <v>0.65486111111111112</v>
+        <v>0.69652777777777775</v>
       </c>
       <c r="E345">
         <v>2</v>
@@ -34332,7 +34335,7 @@
         <v>0.98888888888888893</v>
       </c>
       <c r="D346" s="2">
-        <v>0.65555555555555556</v>
+        <v>0.6972222222222223</v>
       </c>
       <c r="E346">
         <v>2</v>
@@ -34427,7 +34430,7 @@
         <v>0.98958333333333337</v>
       </c>
       <c r="D347" s="2">
-        <v>0.65625</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="E347">
         <v>7</v>
@@ -34522,7 +34525,7 @@
         <v>0.9902777777777777</v>
       </c>
       <c r="D348" s="2">
-        <v>0.65694444444444444</v>
+        <v>0.69861111111111107</v>
       </c>
       <c r="E348">
         <v>5</v>
@@ -34617,7 +34620,7 @@
         <v>0.99097222222222225</v>
       </c>
       <c r="D349" s="2">
-        <v>0.65763888888888888</v>
+        <v>0.69930555555555562</v>
       </c>
       <c r="E349">
         <v>6</v>
@@ -34712,7 +34715,7 @@
         <v>0.9916666666666667</v>
       </c>
       <c r="D350" s="2">
-        <v>0.65833333333333333</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -34807,7 +34810,7 @@
         <v>0.99236111111111114</v>
       </c>
       <c r="D351" s="2">
-        <v>0.65902777777777777</v>
+        <v>0.7006944444444444</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -34902,7 +34905,7 @@
         <v>0.99305555555555547</v>
       </c>
       <c r="D352" s="2">
-        <v>0.65972222222222221</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -34997,7 +35000,7 @@
         <v>0.99375000000000002</v>
       </c>
       <c r="D353" s="2">
-        <v>0.66041666666666665</v>
+        <v>0.70208333333333339</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -35092,7 +35095,7 @@
         <v>0.99444444444444446</v>
       </c>
       <c r="D354" s="2">
-        <v>0.66111111111111109</v>
+        <v>0.70277777777777783</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -35187,7 +35190,7 @@
         <v>0.99513888888888891</v>
       </c>
       <c r="D355" s="2">
-        <v>0.66180555555555554</v>
+        <v>0.70347222222222217</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -35282,7 +35285,7 @@
         <v>0.99583333333333324</v>
       </c>
       <c r="D356" s="2">
-        <v>0.66249999999999998</v>
+        <v>0.70416666666666661</v>
       </c>
       <c r="E356">
         <v>0</v>
@@ -35377,7 +35380,7 @@
         <v>0.99652777777777779</v>
       </c>
       <c r="D357" s="2">
-        <v>0.66319444444444442</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E357">
         <v>3</v>
@@ -35472,7 +35475,7 @@
         <v>0.99722222222222223</v>
       </c>
       <c r="D358" s="2">
-        <v>0.66388888888888886</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -35567,7 +35570,7 @@
         <v>0.99791666666666667</v>
       </c>
       <c r="D359" s="2">
-        <v>0.6645833333333333</v>
+        <v>0.70624999999999993</v>
       </c>
       <c r="E359">
         <v>4</v>
@@ -35662,7 +35665,7 @@
         <v>0.99861111111111101</v>
       </c>
       <c r="D360" s="2">
-        <v>0.66527777777777775</v>
+        <v>0.70694444444444438</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -35757,7 +35760,7 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="D361" s="2">
-        <v>0.66597222222222219</v>
+        <v>0.70763888888888893</v>
       </c>
       <c r="E361">
         <v>0</v>
@@ -35852,7 +35855,7 @@
         <v>0</v>
       </c>
       <c r="D362" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E362">
         <v>0</v>
@@ -35947,7 +35950,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="D363" s="2">
-        <v>0.66736111111111107</v>
+        <v>0.7090277777777777</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -36042,7 +36045,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="D364" s="2">
-        <v>0.66805555555555562</v>
+        <v>0.70972222222222225</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -36137,7 +36140,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="D365" s="2">
-        <v>0.66875000000000007</v>
+        <v>0.7104166666666667</v>
       </c>
       <c r="E365">
         <v>0</v>
@@ -36232,7 +36235,7 @@
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="D366" s="2">
-        <v>0.6694444444444444</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="E366">
         <v>0</v>
@@ -36327,7 +36330,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D367" s="2">
-        <v>0.67013888888888884</v>
+        <v>0.71180555555555547</v>
       </c>
       <c r="E367">
         <v>0</v>
@@ -36422,7 +36425,7 @@
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="D368" s="2">
-        <v>0.67083333333333339</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="E368">
         <v>0</v>
@@ -36517,7 +36520,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="D369" s="2">
-        <v>0.67152777777777783</v>
+        <v>0.71319444444444446</v>
       </c>
       <c r="E369">
         <v>0</v>
@@ -36612,7 +36615,7 @@
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="D370" s="2">
-        <v>0.67222222222222217</v>
+        <v>0.71388888888888891</v>
       </c>
       <c r="E370">
         <v>0</v>
@@ -36707,7 +36710,7 @@
         <v>6.2499999999999995E-3</v>
       </c>
       <c r="D371" s="2">
-        <v>0.67291666666666661</v>
+        <v>0.71458333333333324</v>
       </c>
       <c r="E371">
         <v>0</v>
@@ -36802,7 +36805,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D372" s="2">
-        <v>0.67361111111111116</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="E372">
         <v>0</v>
@@ -36897,7 +36900,7 @@
         <v>7.6388888888888886E-3</v>
       </c>
       <c r="D373" s="2">
-        <v>0.6743055555555556</v>
+        <v>0.71597222222222223</v>
       </c>
       <c r="E373">
         <v>0</v>
@@ -36992,7 +36995,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="D374" s="2">
-        <v>0.67499999999999993</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="E374">
         <v>0</v>
@@ -37087,7 +37090,7 @@
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="D375" s="2">
-        <v>0.67569444444444438</v>
+        <v>0.71736111111111101</v>
       </c>
       <c r="E375">
         <v>0</v>
@@ -37182,7 +37185,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
       <c r="D376" s="2">
-        <v>0.67638888888888893</v>
+        <v>0.71805555555555556</v>
       </c>
       <c r="E376">
         <v>2</v>
@@ -37277,7 +37280,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D377" s="2">
-        <v>0.67708333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="E377">
         <v>0</v>
@@ -37372,7 +37375,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="D378" s="2">
-        <v>0.6777777777777777</v>
+        <v>0.71944444444444444</v>
       </c>
       <c r="E378">
         <v>0</v>
@@ -37467,7 +37470,7 @@
         <v>1.1805555555555555E-2</v>
       </c>
       <c r="D379" s="2">
-        <v>0.67847222222222225</v>
+        <v>0.72013888888888899</v>
       </c>
       <c r="E379">
         <v>0</v>
@@ -37562,7 +37565,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="D380" s="2">
-        <v>0.6791666666666667</v>
+        <v>0.72083333333333333</v>
       </c>
       <c r="E380">
         <v>0</v>
@@ -37657,7 +37660,7 @@
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="D381" s="2">
-        <v>0.67986111111111114</v>
+        <v>0.72152777777777777</v>
       </c>
       <c r="E381">
         <v>0</v>
@@ -37752,7 +37755,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D382" s="2">
-        <v>0.68055555555555547</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="E382">
         <v>0</v>
@@ -37847,7 +37850,7 @@
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="D383" s="2">
-        <v>0.68125000000000002</v>
+        <v>0.72291666666666676</v>
       </c>
       <c r="E383">
         <v>3</v>
@@ -37942,7 +37945,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="D384" s="2">
-        <v>0.68194444444444446</v>
+        <v>0.72361111111111109</v>
       </c>
       <c r="E384">
         <v>0</v>
@@ -38037,7 +38040,7 @@
         <v>1.5972222222222224E-2</v>
       </c>
       <c r="D385" s="2">
-        <v>0.68263888888888891</v>
+        <v>0.72430555555555554</v>
       </c>
       <c r="E385">
         <v>0</v>
@@ -38132,7 +38135,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="D386" s="2">
-        <v>0.68333333333333324</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="E386">
         <v>0</v>
@@ -38227,7 +38230,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="D387" s="2">
-        <v>0.68402777777777779</v>
+        <v>0.72569444444444453</v>
       </c>
       <c r="E387">
         <v>3</v>
@@ -38322,7 +38325,7 @@
         <v>1.8055555555555557E-2</v>
       </c>
       <c r="D388" s="2">
-        <v>0.68472222222222223</v>
+        <v>0.72638888888888886</v>
       </c>
       <c r="E388">
         <v>0</v>
@@ -38417,7 +38420,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="D389" s="2">
-        <v>0.68541666666666667</v>
+        <v>0.7270833333333333</v>
       </c>
       <c r="E389">
         <v>0</v>
@@ -38512,7 +38515,7 @@
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="D390" s="2">
-        <v>0.68611111111111101</v>
+        <v>0.72777777777777775</v>
       </c>
       <c r="E390">
         <v>2</v>
@@ -38607,7 +38610,7 @@
         <v>2.013888888888889E-2</v>
       </c>
       <c r="D391" s="2">
-        <v>0.68680555555555556</v>
+        <v>0.7284722222222223</v>
       </c>
       <c r="E391">
         <v>0</v>
@@ -38702,7 +38705,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D392" s="2">
-        <v>0.6875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E392">
         <v>0</v>
@@ -38797,7 +38800,7 @@
         <v>2.1527777777777781E-2</v>
       </c>
       <c r="D393" s="2">
-        <v>0.68819444444444444</v>
+        <v>0.72986111111111107</v>
       </c>
       <c r="E393">
         <v>0</v>
@@ -38892,7 +38895,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="D394" s="2">
-        <v>0.68888888888888899</v>
+        <v>0.73055555555555562</v>
       </c>
       <c r="E394">
         <v>0</v>
@@ -38987,7 +38990,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="D395" s="2">
-        <v>0.68958333333333333</v>
+        <v>0.73125000000000007</v>
       </c>
       <c r="E395">
         <v>0</v>
@@ -39082,7 +39085,7 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="D396" s="2">
-        <v>0.69027777777777777</v>
+        <v>0.7319444444444444</v>
       </c>
       <c r="E396">
         <v>0</v>
@@ -39177,7 +39180,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="D397" s="2">
-        <v>0.69097222222222221</v>
+        <v>0.73263888888888884</v>
       </c>
       <c r="E397">
         <v>0</v>
@@ -39272,7 +39275,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="D398" s="2">
-        <v>0.69166666666666676</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="E398">
         <v>0</v>
@@ -39367,7 +39370,7 @@
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="D399" s="2">
-        <v>0.69236111111111109</v>
+        <v>0.73402777777777783</v>
       </c>
       <c r="E399">
         <v>2</v>
@@ -39462,7 +39465,7 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="D400" s="2">
-        <v>0.69305555555555554</v>
+        <v>0.73472222222222217</v>
       </c>
       <c r="E400">
         <v>0</v>
@@ -39557,7 +39560,7 @@
         <v>2.7083333333333334E-2</v>
       </c>
       <c r="D401" s="2">
-        <v>0.69374999999999998</v>
+        <v>0.73541666666666661</v>
       </c>
       <c r="E401">
         <v>0</v>
@@ -39652,7 +39655,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D402" s="2">
-        <v>0.69444444444444453</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="E402">
         <v>0</v>
@@ -39747,7 +39750,7 @@
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="D403" s="2">
-        <v>0.69513888888888886</v>
+        <v>0.7368055555555556</v>
       </c>
       <c r="E403">
         <v>0</v>
@@ -39842,7 +39845,7 @@
         <v>2.9166666666666664E-2</v>
       </c>
       <c r="D404" s="2">
-        <v>0.6958333333333333</v>
+        <v>0.73749999999999993</v>
       </c>
       <c r="E404">
         <v>0</v>
@@ -39937,7 +39940,7 @@
         <v>2.9861111111111113E-2</v>
       </c>
       <c r="D405" s="2">
-        <v>0.69652777777777775</v>
+        <v>0.73819444444444438</v>
       </c>
       <c r="E405">
         <v>2</v>
@@ -40032,7 +40035,7 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="D406" s="2">
-        <v>0.6972222222222223</v>
+        <v>0.73888888888888893</v>
       </c>
       <c r="E406">
         <v>1</v>
@@ -40127,7 +40130,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D407" s="2">
-        <v>0.69791666666666663</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="E407">
         <v>3</v>
@@ -40222,7 +40225,7 @@
         <v>3.1944444444444449E-2</v>
       </c>
       <c r="D408" s="2">
-        <v>0.69861111111111107</v>
+        <v>0.7402777777777777</v>
       </c>
       <c r="E408">
         <v>5</v>
@@ -40317,7 +40320,7 @@
         <v>3.2638888888888891E-2</v>
       </c>
       <c r="D409" s="2">
-        <v>0.69930555555555562</v>
+        <v>0.74097222222222225</v>
       </c>
       <c r="E409">
         <v>3</v>
@@ -40412,7 +40415,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="D410" s="2">
-        <v>0.70000000000000007</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="E410">
         <v>0</v>
@@ -40507,7 +40510,7 @@
         <v>3.4027777777777775E-2</v>
       </c>
       <c r="D411" s="2">
-        <v>0.7006944444444444</v>
+        <v>0.74236111111111114</v>
       </c>
       <c r="E411">
         <v>0</v>
@@ -40602,7 +40605,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="D412" s="2">
-        <v>0.70138888888888884</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="E412">
         <v>0</v>
@@ -40697,7 +40700,7 @@
         <v>3.5416666666666666E-2</v>
       </c>
       <c r="D413" s="2">
-        <v>0.70208333333333339</v>
+        <v>0.74375000000000002</v>
       </c>
       <c r="E413">
         <v>0</v>
@@ -40792,7 +40795,7 @@
         <v>3.6111111111111115E-2</v>
       </c>
       <c r="D414" s="2">
-        <v>0.70277777777777783</v>
+        <v>0.74444444444444446</v>
       </c>
       <c r="E414">
         <v>0</v>
@@ -40887,7 +40890,7 @@
         <v>3.6805555555555557E-2</v>
       </c>
       <c r="D415" s="2">
-        <v>0.70347222222222217</v>
+        <v>0.74513888888888891</v>
       </c>
       <c r="E415">
         <v>0</v>
@@ -40982,7 +40985,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="D416" s="2">
-        <v>0.70416666666666661</v>
+        <v>0.74583333333333324</v>
       </c>
       <c r="E416">
         <v>2</v>
@@ -41077,7 +41080,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
       <c r="D417" s="2">
-        <v>0.70486111111111116</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="E417">
         <v>0</v>
@@ -41172,7 +41175,7 @@
         <v>3.888888888888889E-2</v>
       </c>
       <c r="D418" s="2">
-        <v>0.7055555555555556</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E418">
         <v>0</v>
@@ -41267,7 +41270,7 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="D419" s="2">
-        <v>0.70624999999999993</v>
+        <v>0.74791666666666667</v>
       </c>
       <c r="E419">
         <v>0</v>
@@ -41362,7 +41365,7 @@
         <v>4.027777777777778E-2</v>
       </c>
       <c r="D420" s="2">
-        <v>0.70694444444444438</v>
+        <v>0.74861111111111101</v>
       </c>
       <c r="E420">
         <v>0</v>
@@ -41457,7 +41460,7 @@
         <v>4.0972222222222222E-2</v>
       </c>
       <c r="D421" s="2">
-        <v>0.70763888888888893</v>
+        <v>0.74930555555555556</v>
       </c>
       <c r="E421">
         <v>6</v>
@@ -41552,7 +41555,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D422" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E422">
         <v>3</v>
@@ -41647,7 +41650,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
       <c r="D423" s="2">
-        <v>0.7090277777777777</v>
+        <v>0.75069444444444444</v>
       </c>
       <c r="E423">
         <v>7</v>
@@ -41742,7 +41745,7 @@
         <v>4.3055555555555562E-2</v>
       </c>
       <c r="D424" s="2">
-        <v>0.70972222222222225</v>
+        <v>0.75138888888888899</v>
       </c>
       <c r="E424">
         <v>6</v>
@@ -41837,7 +41840,7 @@
         <v>4.3750000000000004E-2</v>
       </c>
       <c r="D425" s="2">
-        <v>0.7104166666666667</v>
+        <v>0.75208333333333333</v>
       </c>
       <c r="E425">
         <v>0</v>
@@ -41932,7 +41935,7 @@
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="D426" s="2">
-        <v>0.71111111111111114</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="E426">
         <v>3</v>
@@ -42027,7 +42030,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="D427" s="2">
-        <v>0.71180555555555547</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="E427">
         <v>0</v>
@@ -42122,7 +42125,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
       <c r="D428" s="2">
-        <v>0.71250000000000002</v>
+        <v>0.75416666666666676</v>
       </c>
       <c r="E428">
         <v>0</v>
@@ -42217,7 +42220,7 @@
         <v>4.6527777777777779E-2</v>
       </c>
       <c r="D429" s="2">
-        <v>0.71319444444444446</v>
+        <v>0.75486111111111109</v>
       </c>
       <c r="E429">
         <v>7</v>
@@ -42312,7 +42315,7 @@
         <v>4.7222222222222221E-2</v>
       </c>
       <c r="D430" s="2">
-        <v>0.71388888888888891</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="E430">
         <v>0</v>
@@ -42407,7 +42410,7 @@
         <v>4.7916666666666663E-2</v>
       </c>
       <c r="D431" s="2">
-        <v>0.71458333333333324</v>
+        <v>0.75624999999999998</v>
       </c>
       <c r="E431">
         <v>0</v>
@@ -42502,7 +42505,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="D432" s="2">
-        <v>0.71527777777777779</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="E432">
         <v>0</v>
@@ -42597,7 +42600,7 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="D433" s="2">
-        <v>0.71597222222222223</v>
+        <v>0.75763888888888886</v>
       </c>
       <c r="E433">
         <v>8</v>
@@ -42692,7 +42695,7 @@
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="D434" s="2">
-        <v>0.71666666666666667</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="E434">
         <v>0</v>
@@ -42787,7 +42790,7 @@
         <v>5.0694444444444452E-2</v>
       </c>
       <c r="D435" s="2">
-        <v>0.71736111111111101</v>
+        <v>0.75902777777777775</v>
       </c>
       <c r="E435">
         <v>0</v>
@@ -42882,7 +42885,7 @@
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="D436" s="2">
-        <v>0.71805555555555556</v>
+        <v>0.7597222222222223</v>
       </c>
       <c r="E436">
         <v>0</v>
@@ -42977,7 +42980,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D437" s="2">
-        <v>0.71875</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="E437">
         <v>0</v>
@@ -43072,7 +43075,7 @@
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="D438" s="2">
-        <v>0.71944444444444444</v>
+        <v>0.76111111111111107</v>
       </c>
       <c r="E438">
         <v>41</v>
@@ -43167,7 +43170,7 @@
         <v>5.347222222222222E-2</v>
       </c>
       <c r="D439" s="2">
-        <v>0.72013888888888899</v>
+        <v>0.76180555555555562</v>
       </c>
       <c r="E439">
         <v>28</v>
@@ -43262,7 +43265,7 @@
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="D440" s="2">
-        <v>0.72083333333333333</v>
+        <v>0.76250000000000007</v>
       </c>
       <c r="E440">
         <v>0</v>
@@ -43357,7 +43360,7 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="D441" s="2">
-        <v>0.72152777777777777</v>
+        <v>0.7631944444444444</v>
       </c>
       <c r="E441">
         <v>0</v>
@@ -43452,7 +43455,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D442" s="2">
-        <v>0.72222222222222221</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="E442">
         <v>0</v>
@@ -43547,7 +43550,7 @@
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="D443" s="2">
-        <v>0.72291666666666676</v>
+        <v>0.76458333333333339</v>
       </c>
       <c r="E443">
         <v>11</v>
@@ -43642,7 +43645,7 @@
         <v>5.6944444444444443E-2</v>
       </c>
       <c r="D444" s="2">
-        <v>0.72361111111111109</v>
+        <v>0.76527777777777783</v>
       </c>
       <c r="E444">
         <v>2</v>
@@ -43737,7 +43740,7 @@
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="D445" s="2">
-        <v>0.72430555555555554</v>
+        <v>0.76597222222222217</v>
       </c>
       <c r="E445">
         <v>6</v>
@@ -43832,7 +43835,7 @@
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="D446" s="2">
-        <v>0.72499999999999998</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="E446">
         <v>0</v>
@@ -43927,7 +43930,7 @@
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="D447" s="2">
-        <v>0.72569444444444453</v>
+        <v>0.76736111111111116</v>
       </c>
       <c r="E447">
         <v>0</v>
@@ -44022,7 +44025,7 @@
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="D448" s="2">
-        <v>0.72638888888888886</v>
+        <v>0.7680555555555556</v>
       </c>
       <c r="E448">
         <v>6</v>
@@ -44117,7 +44120,7 @@
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="D449" s="2">
-        <v>0.7270833333333333</v>
+        <v>0.76874999999999993</v>
       </c>
       <c r="E449">
         <v>0</v>
@@ -44212,7 +44215,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="D450" s="2">
-        <v>0.72777777777777775</v>
+        <v>0.76944444444444438</v>
       </c>
       <c r="E450">
         <v>2</v>
@@ -44307,7 +44310,7 @@
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="D451" s="2">
-        <v>0.7284722222222223</v>
+        <v>0.77013888888888893</v>
       </c>
       <c r="E451">
         <v>2</v>
@@ -44402,7 +44405,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="D452" s="2">
-        <v>0.72916666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E452">
         <v>1</v>
@@ -44497,7 +44500,7 @@
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="D453" s="2">
-        <v>0.72986111111111107</v>
+        <v>0.7715277777777777</v>
       </c>
       <c r="E453">
         <v>0</v>
@@ -44592,7 +44595,7 @@
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="D454" s="2">
-        <v>0.73055555555555562</v>
+        <v>0.77222222222222225</v>
       </c>
       <c r="E454">
         <v>0</v>
@@ -44687,7 +44690,7 @@
         <v>6.458333333333334E-2</v>
       </c>
       <c r="D455" s="2">
-        <v>0.73125000000000007</v>
+        <v>0.7729166666666667</v>
       </c>
       <c r="E455">
         <v>0</v>
@@ -44782,7 +44785,7 @@
         <v>6.5277777777777782E-2</v>
       </c>
       <c r="D456" s="2">
-        <v>0.7319444444444444</v>
+        <v>0.77361111111111114</v>
       </c>
       <c r="E456">
         <v>0</v>
@@ -44877,7 +44880,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="D457" s="2">
-        <v>0.73263888888888884</v>
+        <v>0.77430555555555547</v>
       </c>
       <c r="E457">
         <v>0</v>
@@ -44972,7 +44975,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="D458" s="2">
-        <v>0.73333333333333339</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="E458">
         <v>0</v>
@@ -45067,7 +45070,7 @@
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="D459" s="2">
-        <v>0.73402777777777783</v>
+        <v>0.77569444444444446</v>
       </c>
       <c r="E459">
         <v>0</v>
@@ -45162,7 +45165,7 @@
         <v>6.805555555555555E-2</v>
       </c>
       <c r="D460" s="2">
-        <v>0.73472222222222217</v>
+        <v>0.77638888888888891</v>
       </c>
       <c r="E460">
         <v>4</v>
@@ -45257,7 +45260,7 @@
         <v>6.8749999999999992E-2</v>
       </c>
       <c r="D461" s="2">
-        <v>0.73541666666666661</v>
+        <v>0.77708333333333324</v>
       </c>
       <c r="E461">
         <v>5</v>
@@ -45352,7 +45355,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="D462" s="2">
-        <v>0.73611111111111116</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E462">
         <v>0</v>
@@ -45447,7 +45450,7 @@
         <v>7.013888888888889E-2</v>
       </c>
       <c r="D463" s="2">
-        <v>0.7368055555555556</v>
+        <v>0.77847222222222223</v>
       </c>
       <c r="E463">
         <v>2</v>
@@ -45542,7 +45545,7 @@
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="D464" s="2">
-        <v>0.73749999999999993</v>
+        <v>0.77916666666666667</v>
       </c>
       <c r="E464">
         <v>2</v>
@@ -45637,7 +45640,7 @@
         <v>7.1527777777777787E-2</v>
       </c>
       <c r="D465" s="2">
-        <v>0.73819444444444438</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="E465">
         <v>1</v>
@@ -45732,7 +45735,7 @@
         <v>7.2222222222222229E-2</v>
       </c>
       <c r="D466" s="2">
-        <v>0.73888888888888893</v>
+        <v>0.78055555555555556</v>
       </c>
       <c r="E466">
         <v>0</v>
@@ -45827,7 +45830,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D467" s="2">
-        <v>0.73958333333333337</v>
+        <v>0.78125</v>
       </c>
       <c r="E467">
         <v>0</v>
@@ -45922,7 +45925,7 @@
         <v>7.3611111111111113E-2</v>
       </c>
       <c r="D468" s="2">
-        <v>0.7402777777777777</v>
+        <v>0.78194444444444444</v>
       </c>
       <c r="E468">
         <v>3</v>
@@ -46017,7 +46020,7 @@
         <v>7.4305555555555555E-2</v>
       </c>
       <c r="D469" s="2">
-        <v>0.74097222222222225</v>
+        <v>0.78263888888888899</v>
       </c>
       <c r="E469">
         <v>0</v>
@@ -46112,7 +46115,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D470" s="2">
-        <v>0.7416666666666667</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="E470">
         <v>2</v>
@@ -46207,7 +46210,7 @@
         <v>7.5694444444444439E-2</v>
       </c>
       <c r="D471" s="2">
-        <v>0.74236111111111114</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="E471">
         <v>0</v>
@@ -46302,7 +46305,7 @@
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="D472" s="2">
-        <v>0.74305555555555547</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="E472">
         <v>5</v>
@@ -46397,7 +46400,7 @@
         <v>7.7083333333333337E-2</v>
       </c>
       <c r="D473" s="2">
-        <v>0.74375000000000002</v>
+        <v>0.78541666666666676</v>
       </c>
       <c r="E473">
         <v>0</v>
@@ -46492,7 +46495,7 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="D474" s="2">
-        <v>0.74444444444444446</v>
+        <v>0.78611111111111109</v>
       </c>
       <c r="E474">
         <v>0</v>
@@ -46587,7 +46590,7 @@
         <v>7.8472222222222221E-2</v>
       </c>
       <c r="D475" s="2">
-        <v>0.74513888888888891</v>
+        <v>0.78680555555555554</v>
       </c>
       <c r="E475">
         <v>0</v>
@@ -46682,7 +46685,7 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="D476" s="2">
-        <v>0.74583333333333324</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="E476">
         <v>4</v>
@@ -46777,7 +46780,7 @@
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="D477" s="2">
-        <v>0.74652777777777779</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="E477">
         <v>3</v>
@@ -46872,7 +46875,7 @@
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="D478" s="2">
-        <v>0.74722222222222223</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="E478">
         <v>0</v>
@@ -46967,7 +46970,7 @@
         <v>8.1250000000000003E-2</v>
       </c>
       <c r="D479" s="2">
-        <v>0.74791666666666667</v>
+        <v>0.7895833333333333</v>
       </c>
       <c r="E479">
         <v>0</v>
@@ -47062,7 +47065,7 @@
         <v>8.1944444444444445E-2</v>
       </c>
       <c r="D480" s="2">
-        <v>0.74861111111111101</v>
+        <v>0.79027777777777775</v>
       </c>
       <c r="E480">
         <v>0</v>
@@ -47157,7 +47160,7 @@
         <v>8.2638888888888887E-2</v>
       </c>
       <c r="D481" s="2">
-        <v>0.74930555555555556</v>
+        <v>0.7909722222222223</v>
       </c>
       <c r="E481">
         <v>0</v>
@@ -47252,7 +47255,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D482" s="2">
-        <v>0.75</v>
+        <v>0.79166666666666596</v>
       </c>
       <c r="E482">
         <v>0</v>
@@ -47347,7 +47350,7 @@
         <v>8.4027777777777771E-2</v>
       </c>
       <c r="D483" s="2">
-        <v>0.75069444444444444</v>
+        <v>0.79236111111111096</v>
       </c>
       <c r="E483">
         <v>0</v>
@@ -47442,7 +47445,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
       <c r="D484" s="2">
-        <v>0.75138888888888899</v>
+        <v>0.79305555555555496</v>
       </c>
       <c r="E484">
         <v>0</v>
@@ -47537,7 +47540,7 @@
         <v>8.5416666666666655E-2</v>
       </c>
       <c r="D485" s="2">
-        <v>0.75208333333333333</v>
+        <v>0.79374999999999896</v>
       </c>
       <c r="E485">
         <v>0</v>
@@ -47632,7 +47635,7 @@
         <v>8.6111111111111124E-2</v>
       </c>
       <c r="D486" s="2">
-        <v>0.75277777777777777</v>
+        <v>0.79444444444444395</v>
       </c>
       <c r="E486">
         <v>0</v>
@@ -47727,7 +47730,7 @@
         <v>8.6805555555555566E-2</v>
       </c>
       <c r="D487" s="2">
-        <v>0.75347222222222221</v>
+        <v>0.79513888888888795</v>
       </c>
       <c r="E487">
         <v>0</v>
@@ -47822,7 +47825,7 @@
         <v>8.7500000000000008E-2</v>
       </c>
       <c r="D488" s="2">
-        <v>0.75416666666666676</v>
+        <v>0.79583333333333195</v>
       </c>
       <c r="E488">
         <v>0</v>
@@ -47917,7 +47920,7 @@
         <v>8.819444444444445E-2</v>
       </c>
       <c r="D489" s="2">
-        <v>0.75486111111111109</v>
+        <v>0.79652777777777695</v>
       </c>
       <c r="E489">
         <v>0</v>
@@ -48012,7 +48015,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="D490" s="2">
-        <v>0.75555555555555554</v>
+        <v>0.79722222222222106</v>
       </c>
       <c r="E490">
         <v>0</v>
@@ -48107,7 +48110,7 @@
         <v>8.9583333333333334E-2</v>
       </c>
       <c r="D491" s="2">
-        <v>0.75624999999999998</v>
+        <v>0.79791666666666505</v>
       </c>
       <c r="E491">
         <v>0</v>
@@ -48202,7 +48205,7 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="D492" s="2">
-        <v>0.75694444444444453</v>
+        <v>0.79861111111110905</v>
       </c>
       <c r="E492">
         <v>0</v>
@@ -48297,7 +48300,7 @@
         <v>9.0972222222222218E-2</v>
       </c>
       <c r="D493" s="2">
-        <v>0.75763888888888886</v>
+        <v>0.79930555555555405</v>
       </c>
       <c r="E493">
         <v>0</v>
@@ -48392,7 +48395,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="D494" s="2">
-        <v>0.7583333333333333</v>
+        <v>0.79999999999999805</v>
       </c>
       <c r="E494">
         <v>0</v>
@@ -48487,7 +48490,7 @@
         <v>9.2361111111111116E-2</v>
       </c>
       <c r="D495" s="2">
-        <v>0.75902777777777775</v>
+        <v>0.80069444444444204</v>
       </c>
       <c r="E495">
         <v>0</v>
@@ -48582,7 +48585,7 @@
         <v>9.3055555555555558E-2</v>
       </c>
       <c r="D496" s="2">
-        <v>0.7597222222222223</v>
+        <v>0.80138888888888704</v>
       </c>
       <c r="E496">
         <v>0</v>
@@ -48677,7 +48680,7 @@
         <v>9.375E-2</v>
       </c>
       <c r="D497" s="2">
-        <v>0.76041666666666663</v>
+        <v>0.80208333333333104</v>
       </c>
       <c r="E497">
         <v>0</v>
@@ -48772,7 +48775,7 @@
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="D498" s="2">
-        <v>0.76111111111111107</v>
+        <v>0.80277777777777504</v>
       </c>
       <c r="E498">
         <v>0</v>
@@ -48867,7 +48870,7 @@
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="D499" s="2">
-        <v>0.76180555555555562</v>
+        <v>0.80347222222222003</v>
       </c>
       <c r="E499">
         <v>0</v>
@@ -48962,7 +48965,7 @@
         <v>9.5833333333333326E-2</v>
       </c>
       <c r="D500" s="2">
-        <v>0.76250000000000007</v>
+        <v>0.80416666666666403</v>
       </c>
       <c r="E500">
         <v>0</v>
@@ -49057,7 +49060,7 @@
         <v>9.6527777777777768E-2</v>
       </c>
       <c r="D501" s="2">
-        <v>0.7631944444444444</v>
+        <v>0.80486111111110803</v>
       </c>
       <c r="E501">
         <v>0</v>
@@ -49152,7 +49155,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="D502" s="2">
-        <v>0.76388888888888884</v>
+        <v>0.80555555555555303</v>
       </c>
       <c r="E502">
         <v>0</v>
@@ -49247,7 +49250,7 @@
         <v>9.7916666666666666E-2</v>
       </c>
       <c r="D503" s="2">
-        <v>0.76458333333333339</v>
+        <v>0.80624999999999702</v>
       </c>
       <c r="E503">
         <v>0</v>
@@ -49342,7 +49345,7 @@
         <v>9.8611111111111108E-2</v>
       </c>
       <c r="D504" s="2">
-        <v>0.76527777777777783</v>
+        <v>0.80694444444444102</v>
       </c>
       <c r="E504">
         <v>0</v>
@@ -49437,7 +49440,7 @@
         <v>9.930555555555555E-2</v>
       </c>
       <c r="D505" s="2">
-        <v>0.76597222222222217</v>
+        <v>0.80763888888888602</v>
       </c>
       <c r="E505">
         <v>0</v>
@@ -49532,7 +49535,7 @@
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="D506" s="2">
-        <v>0.76666666666666661</v>
+        <v>0.80833333333333002</v>
       </c>
       <c r="E506">
         <v>0</v>
@@ -49627,7 +49630,7 @@
         <v>0.10069444444444443</v>
       </c>
       <c r="D507" s="2">
-        <v>0.76736111111111116</v>
+        <v>0.80902777777777402</v>
       </c>
       <c r="E507">
         <v>0</v>
@@ -49722,7 +49725,7 @@
         <v>0.1013888888888889</v>
       </c>
       <c r="D508" s="2">
-        <v>0.7680555555555556</v>
+        <v>0.80972222222221901</v>
       </c>
       <c r="E508">
         <v>0</v>
@@ -49817,7 +49820,7 @@
         <v>0.10208333333333335</v>
       </c>
       <c r="D509" s="2">
-        <v>0.76874999999999993</v>
+        <v>0.81041666666666301</v>
       </c>
       <c r="E509">
         <v>0</v>
@@ -49912,7 +49915,7 @@
         <v>0.10277777777777779</v>
       </c>
       <c r="D510" s="2">
-        <v>0.76944444444444438</v>
+        <v>0.81111111111110701</v>
       </c>
       <c r="E510">
         <v>0</v>
@@ -50007,7 +50010,7 @@
         <v>0.10347222222222223</v>
       </c>
       <c r="D511" s="2">
-        <v>0.77013888888888893</v>
+        <v>0.81180555555555201</v>
       </c>
       <c r="E511">
         <v>0</v>
@@ -50102,7 +50105,7 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="D512" s="2">
-        <v>0.77083333333333337</v>
+        <v>0.812499999999996</v>
       </c>
       <c r="E512">
         <v>0</v>
@@ -50197,7 +50200,7 @@
         <v>0.10486111111111111</v>
       </c>
       <c r="D513" s="2">
-        <v>0.7715277777777777</v>
+        <v>0.81319444444444</v>
       </c>
       <c r="E513">
         <v>0</v>
@@ -50292,7 +50295,7 @@
         <v>0.10555555555555556</v>
       </c>
       <c r="D514" s="2">
-        <v>0.77222222222222225</v>
+        <v>0.813888888888885</v>
       </c>
       <c r="E514">
         <v>0</v>
@@ -50387,7 +50390,7 @@
         <v>0.10625</v>
       </c>
       <c r="D515" s="2">
-        <v>0.7729166666666667</v>
+        <v>0.814583333333329</v>
       </c>
       <c r="E515">
         <v>0</v>
@@ -50482,7 +50485,7 @@
         <v>0.10694444444444444</v>
       </c>
       <c r="D516" s="2">
-        <v>0.77361111111111114</v>
+        <v>0.81527777777777299</v>
       </c>
       <c r="E516">
         <v>0</v>
@@ -50577,7 +50580,7 @@
         <v>0.1076388888888889</v>
       </c>
       <c r="D517" s="2">
-        <v>0.77430555555555547</v>
+        <v>0.81597222222221799</v>
       </c>
       <c r="E517">
         <v>0</v>
@@ -50672,7 +50675,7 @@
         <v>0.10833333333333334</v>
       </c>
       <c r="D518" s="2">
-        <v>0.77500000000000002</v>
+        <v>0.81666666666666199</v>
       </c>
       <c r="E518">
         <v>0</v>
@@ -50767,7 +50770,7 @@
         <v>0.10902777777777778</v>
       </c>
       <c r="D519" s="2">
-        <v>0.77569444444444446</v>
+        <v>0.81736111111110599</v>
       </c>
       <c r="E519">
         <v>14</v>
@@ -50862,7 +50865,7 @@
         <v>0.10972222222222222</v>
       </c>
       <c r="D520" s="2">
-        <v>0.77638888888888891</v>
+        <v>0.81805555555555098</v>
       </c>
       <c r="E520">
         <v>17</v>
@@ -50957,7 +50960,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="D521" s="2">
-        <v>0.77708333333333324</v>
+        <v>0.81874999999999498</v>
       </c>
       <c r="E521">
         <v>0</v>
@@ -51052,7 +51055,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="D522" s="2">
-        <v>0.77777777777777779</v>
+        <v>0.81944444444443898</v>
       </c>
       <c r="E522">
         <v>0</v>
@@ -51147,7 +51150,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="D523" s="2">
-        <v>0.77847222222222223</v>
+        <v>0.82013888888888398</v>
       </c>
       <c r="E523">
         <v>0</v>
@@ -51242,7 +51245,7 @@
         <v>0.1125</v>
       </c>
       <c r="D524" s="2">
-        <v>0.77916666666666667</v>
+        <v>0.82083333333332797</v>
       </c>
       <c r="E524">
         <v>0</v>
@@ -51337,7 +51340,7 @@
         <v>0.11319444444444444</v>
       </c>
       <c r="D525" s="2">
-        <v>0.77986111111111101</v>
+        <v>0.82152777777777197</v>
       </c>
       <c r="E525">
         <v>0</v>
@@ -51432,7 +51435,7 @@
         <v>0.11388888888888889</v>
       </c>
       <c r="D526" s="2">
-        <v>0.78055555555555556</v>
+        <v>0.82222222222221697</v>
       </c>
       <c r="E526">
         <v>0</v>
@@ -51527,7 +51530,7 @@
         <v>0.11458333333333333</v>
       </c>
       <c r="D527" s="2">
-        <v>0.78125</v>
+        <v>0.82291666666666097</v>
       </c>
       <c r="E527">
         <v>0</v>
@@ -51622,7 +51625,7 @@
         <v>0.11527777777777777</v>
       </c>
       <c r="D528" s="2">
-        <v>0.78194444444444444</v>
+        <v>0.82361111111110497</v>
       </c>
       <c r="E528">
         <v>0</v>
@@ -51717,7 +51720,7 @@
         <v>0.11597222222222221</v>
       </c>
       <c r="D529" s="2">
-        <v>0.78263888888888899</v>
+        <v>0.82430555555554996</v>
       </c>
       <c r="E529">
         <v>0</v>
@@ -51812,7 +51815,7 @@
         <v>0.11666666666666665</v>
       </c>
       <c r="D530" s="2">
-        <v>0.78333333333333333</v>
+        <v>0.82499999999999396</v>
       </c>
       <c r="E530">
         <v>0</v>
@@ -51907,7 +51910,7 @@
         <v>0.1173611111111111</v>
       </c>
       <c r="D531" s="2">
-        <v>0.78402777777777777</v>
+        <v>0.82569444444443796</v>
       </c>
       <c r="E531">
         <v>0</v>
@@ -52002,7 +52005,7 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="D532" s="2">
-        <v>0.78472222222222221</v>
+        <v>0.82638888888888296</v>
       </c>
       <c r="E532">
         <v>0</v>
@@ -52097,7 +52100,7 @@
         <v>0.11875000000000001</v>
       </c>
       <c r="D533" s="2">
-        <v>0.78541666666666676</v>
+        <v>0.82708333333332695</v>
       </c>
       <c r="E533">
         <v>0</v>
@@ -52192,7 +52195,7 @@
         <v>0.11944444444444445</v>
       </c>
       <c r="D534" s="2">
-        <v>0.78611111111111109</v>
+        <v>0.82777777777777095</v>
       </c>
       <c r="E534">
         <v>0</v>
@@ -52287,7 +52290,7 @@
         <v>0.12013888888888889</v>
       </c>
       <c r="D535" s="2">
-        <v>0.78680555555555554</v>
+        <v>0.82847222222221595</v>
       </c>
       <c r="E535">
         <v>0</v>
@@ -52382,7 +52385,7 @@
         <v>0.12083333333333333</v>
       </c>
       <c r="D536" s="2">
-        <v>0.78749999999999998</v>
+        <v>0.82916666666665995</v>
       </c>
       <c r="E536">
         <v>0</v>
@@ -52477,7 +52480,7 @@
         <v>0.12152777777777778</v>
       </c>
       <c r="D537" s="2">
-        <v>0.78819444444444453</v>
+        <v>0.82986111111110406</v>
       </c>
       <c r="E537">
         <v>0</v>
@@ -52572,7 +52575,7 @@
         <v>0.12222222222222223</v>
       </c>
       <c r="D538" s="2">
-        <v>0.78888888888888886</v>
+        <v>0.83055555555554905</v>
       </c>
       <c r="E538">
         <v>0</v>
@@ -52667,7 +52670,7 @@
         <v>0.12291666666666667</v>
       </c>
       <c r="D539" s="2">
-        <v>0.7895833333333333</v>
+        <v>0.83124999999999305</v>
       </c>
       <c r="E539">
         <v>0</v>
@@ -52762,7 +52765,7 @@
         <v>0.12361111111111112</v>
       </c>
       <c r="D540" s="2">
-        <v>0.79027777777777775</v>
+        <v>0.83194444444443705</v>
       </c>
       <c r="E540">
         <v>0</v>
@@ -52857,7 +52860,7 @@
         <v>0.12430555555555556</v>
       </c>
       <c r="D541" s="2">
-        <v>0.7909722222222223</v>
+        <v>0.83263888888888204</v>
       </c>
       <c r="E541">
         <v>0</v>
